--- a/data/UNCCH-tuition.xlsx
+++ b/data/UNCCH-tuition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="25360" windowHeight="14860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,10 +317,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,13 +369,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,55 +407,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="46">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -448,9 +477,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="46">
+  <cellStyles count="49">
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -473,6 +529,7 @@
     <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -495,6 +552,7 @@
     <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -544,56 +602,215 @@
             <c:strRef>
               <c:f>Sheet1!$A$4:$A$73</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
+                  <c:v>1947-1948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1948-1949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1949-1950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1950-1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1951-1952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1952-1953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1953-1954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1954-1955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1955-1956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1956-1957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1957-1958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1958-1959</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1959-1960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1960-1961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1961-1962</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1962-1963</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1963-1964</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1964-1965</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1965-1966</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1966-1967</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1967-1968</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1968-1969</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1969-1970</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1970-1971</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1971-1972</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1972-1973</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1973-1974</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1974-1975</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1975-1976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1976-1977</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1977-1978</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1978-1979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1979-1980</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1980-1981</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1981-1982</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1982-1983</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1983-1984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1984-1985</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1985-1986</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1986-1987</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1987-1988</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1988-1989</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1989-1990</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1990-1991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1991-1992</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1992-1993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1993-1994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1994-1995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1995-1996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1996-1997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1997-1998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1998-1999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1999-2000</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>2000-2001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="54">
                   <c:v>2001-2002</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="55">
                   <c:v>2002-2003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="56">
                   <c:v>2003-2004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="57">
                   <c:v>2004-2005</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="58">
                   <c:v>2005-2006</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="59">
                   <c:v>2006-2007</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="60">
                   <c:v>2007-2008</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="61">
                   <c:v>2008-2009</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="62">
                   <c:v>2009-2010</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="63">
                   <c:v>2010-2011</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="64">
                   <c:v>2011-2012</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="65">
                   <c:v>2012-2013</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="66">
                   <c:v>2013-2014</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="67">
                   <c:v>2014-2015</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="68">
                   <c:v>2015-2016</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="69">
                   <c:v>2016-2017</c:v>
                 </c:pt>
               </c:strCache>
@@ -604,56 +821,215 @@
               <c:f>Sheet1!$C$4:$C$73</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0;[Red]\-"$"#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>242.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>254.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>309.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>326.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>337.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>342.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>402.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>402.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>422.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>439.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>453.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>468.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>478.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>529.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>529.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>566.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>599.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>692.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>702.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>766.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>773.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>794.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>819.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>845.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>876.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1008.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1117.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>921.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1284.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1454.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1569.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1686.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2161.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2224.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2262.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2365.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>2768.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="54">
                   <c:v>3277.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="55">
                   <c:v>3856.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="56">
                   <c:v>4072.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="57">
                   <c:v>4451.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="58">
                   <c:v>4613.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="59">
                   <c:v>5033.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="60">
                   <c:v>5340.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="61">
                   <c:v>5397.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="62">
                   <c:v>5625.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="63">
                   <c:v>6665.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="64">
                   <c:v>7009.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="65">
                   <c:v>7690.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="66">
                   <c:v>8340.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="67">
                   <c:v>8346.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="68">
                   <c:v>8591.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="69">
                   <c:v>8835.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -682,56 +1058,215 @@
             <c:strRef>
               <c:f>Sheet1!$A$4:$A$73</c:f>
               <c:strCache>
-                <c:ptCount val="17"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
+                  <c:v>1947-1948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1948-1949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1949-1950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1950-1951</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1951-1952</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1952-1953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1953-1954</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1954-1955</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1955-1956</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1956-1957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1957-1958</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1958-1959</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1959-1960</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1960-1961</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1961-1962</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1962-1963</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1963-1964</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1964-1965</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1965-1966</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1966-1967</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1967-1968</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1968-1969</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1969-1970</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1970-1971</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1971-1972</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1972-1973</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1973-1974</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1974-1975</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1975-1976</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1976-1977</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1977-1978</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1978-1979</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1979-1980</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1980-1981</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1981-1982</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1982-1983</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1983-1984</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1984-1985</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1985-1986</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1986-1987</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1987-1988</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1988-1989</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1989-1990</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1990-1991</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1991-1992</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1992-1993</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1993-1994</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1994-1995</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1995-1996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1996-1997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1997-1998</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1998-1999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1999-2000</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>2000-2001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="54">
                   <c:v>2001-2002</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="55">
                   <c:v>2002-2003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="56">
                   <c:v>2003-2004</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="57">
                   <c:v>2004-2005</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="58">
                   <c:v>2005-2006</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="59">
                   <c:v>2006-2007</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="60">
                   <c:v>2007-2008</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="61">
                   <c:v>2008-2009</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="62">
                   <c:v>2009-2010</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="63">
                   <c:v>2010-2011</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="64">
                   <c:v>2011-2012</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="65">
                   <c:v>2012-2013</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="66">
                   <c:v>2013-2014</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="67">
                   <c:v>2014-2015</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="68">
                   <c:v>2015-2016</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="69">
                   <c:v>2016-2017</c:v>
                 </c:pt>
               </c:strCache>
@@ -742,56 +1277,215 @@
               <c:f>Sheet1!$G$4:$G$73</c:f>
               <c:numCache>
                 <c:formatCode>"$"#,##0;[Red]\-"$"#,##0</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="70"/>
                 <c:pt idx="0">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>449.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>452.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>592.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>592.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>592.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>592.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>604.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>604.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>704.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>704.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>710.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>734.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>734.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>751.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>862.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1017.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1127.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1477.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1997.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2112.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2122.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2239.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2239.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2276.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2309.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2516.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2526.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3128.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3393.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3714.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4159.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4447.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4830.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5510.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5743.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7116.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7868.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8496.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9095.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9802.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10693.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11210.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11428.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11531.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>11934.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="54">
                   <c:v>13269.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="55">
                   <c:v>15140.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="56">
                   <c:v>15920.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="57">
                   <c:v>17549.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="58">
                   <c:v>18411.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="59">
                   <c:v>19681.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="60">
                   <c:v>20988.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="61">
                   <c:v>22295.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="62">
                   <c:v>23513.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="63">
                   <c:v>25280.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="64">
                   <c:v>26834.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="65">
                   <c:v>28442.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="66">
                   <c:v>30122.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="67">
                   <c:v>33687.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="68">
                   <c:v>33673.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="69">
                   <c:v>33916.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -809,11 +1503,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2126397912"/>
-        <c:axId val="2126414984"/>
+        <c:axId val="2119218328"/>
+        <c:axId val="2119215336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2126397912"/>
+        <c:axId val="2119218328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +1516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126414984"/>
+        <c:crossAx val="2119215336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -830,7 +1524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2126414984"/>
+        <c:axId val="2119215336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -841,7 +1535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2126397912"/>
+        <c:crossAx val="2119218328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -867,16 +1561,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1222,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O73"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57:K73"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="T3" workbookViewId="0">
+      <selection activeCell="A57" sqref="A3:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1287,7 +1981,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1295,7 +1989,7 @@
         <v>54</v>
       </c>
       <c r="C4" s="1">
-        <f>B4+O4</f>
+        <f t="shared" ref="C4:C35" si="0">B4+O4</f>
         <v>106</v>
       </c>
       <c r="D4" s="1"/>
@@ -1304,7 +1998,7 @@
         <v>192</v>
       </c>
       <c r="G4" s="1">
-        <f>F4+O4</f>
+        <f t="shared" ref="G4:G35" si="1">F4+O4</f>
         <v>244</v>
       </c>
       <c r="H4" s="1"/>
@@ -1314,7 +2008,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1322,7 +2016,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="1">
-        <f>B5+O5</f>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="D5" s="1"/>
@@ -1331,7 +2025,7 @@
         <v>192</v>
       </c>
       <c r="G5" s="1">
-        <f>F5+O5</f>
+        <f t="shared" si="1"/>
         <v>244</v>
       </c>
       <c r="H5" s="1"/>
@@ -1341,7 +2035,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +2043,7 @@
         <v>100</v>
       </c>
       <c r="C6" s="1">
-        <f>B6+O6</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="D6" s="1"/>
@@ -1358,7 +2052,7 @@
         <v>240</v>
       </c>
       <c r="G6" s="1">
-        <f>F6+O6</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="H6" s="1"/>
@@ -1368,7 +2062,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1376,7 +2070,7 @@
         <v>100</v>
       </c>
       <c r="C7" s="1">
-        <f>B7+O7</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="D7" s="1"/>
@@ -1385,7 +2079,7 @@
         <v>240</v>
       </c>
       <c r="G7" s="1">
-        <f>F7+O7</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="H7" s="1"/>
@@ -1395,7 +2089,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1403,7 +2097,7 @@
         <v>100</v>
       </c>
       <c r="C8" s="1">
-        <f>B8+O8</f>
+        <f t="shared" si="0"/>
         <v>152</v>
       </c>
       <c r="D8" s="1"/>
@@ -1412,7 +2106,7 @@
         <v>240</v>
       </c>
       <c r="G8" s="1">
-        <f>F8+O8</f>
+        <f t="shared" si="1"/>
         <v>292</v>
       </c>
       <c r="H8" s="1"/>
@@ -1422,7 +2116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1430,7 +2124,7 @@
         <v>100</v>
       </c>
       <c r="C9" s="1">
-        <f>B9+O9</f>
+        <f t="shared" si="0"/>
         <v>159</v>
       </c>
       <c r="D9" s="1"/>
@@ -1439,7 +2133,7 @@
         <v>240</v>
       </c>
       <c r="G9" s="1">
-        <f>F9+O9</f>
+        <f t="shared" si="1"/>
         <v>299</v>
       </c>
       <c r="H9" s="1"/>
@@ -1449,7 +2143,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1457,7 +2151,7 @@
         <v>150</v>
       </c>
       <c r="C10" s="1">
-        <f>B10+O10</f>
+        <f t="shared" si="0"/>
         <v>239</v>
       </c>
       <c r="D10" s="1"/>
@@ -1466,7 +2160,7 @@
         <v>360</v>
       </c>
       <c r="G10" s="1">
-        <f>F10+O10</f>
+        <f t="shared" si="1"/>
         <v>449</v>
       </c>
       <c r="H10" s="1"/>
@@ -1476,7 +2170,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1484,7 +2178,7 @@
         <v>150</v>
       </c>
       <c r="C11" s="1">
-        <f>B11+O11</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="D11" s="1"/>
@@ -1493,7 +2187,7 @@
         <v>360</v>
       </c>
       <c r="G11" s="1">
-        <f>F11+O11</f>
+        <f t="shared" si="1"/>
         <v>452</v>
       </c>
       <c r="H11" s="1"/>
@@ -1503,7 +2197,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +2205,7 @@
         <v>150</v>
       </c>
       <c r="C12" s="1">
-        <f>B12+O12</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="D12" s="1"/>
@@ -1520,7 +2214,7 @@
         <v>500</v>
       </c>
       <c r="G12" s="1">
-        <f>F12+O12</f>
+        <f t="shared" si="1"/>
         <v>592</v>
       </c>
       <c r="H12" s="1"/>
@@ -1530,7 +2224,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1538,7 +2232,7 @@
         <v>150</v>
       </c>
       <c r="C13" s="1">
-        <f>B13+O13</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="D13" s="1"/>
@@ -1547,7 +2241,7 @@
         <v>500</v>
       </c>
       <c r="G13" s="1">
-        <f>F13+O13</f>
+        <f t="shared" si="1"/>
         <v>592</v>
       </c>
       <c r="H13" s="1"/>
@@ -1557,7 +2251,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1565,7 +2259,7 @@
         <v>150</v>
       </c>
       <c r="C14" s="1">
-        <f>B14+O14</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="D14" s="1"/>
@@ -1574,7 +2268,7 @@
         <v>500</v>
       </c>
       <c r="G14" s="1">
-        <f>F14+O14</f>
+        <f t="shared" si="1"/>
         <v>592</v>
       </c>
       <c r="H14" s="1"/>
@@ -1584,7 +2278,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1592,7 +2286,7 @@
         <v>150</v>
       </c>
       <c r="C15" s="1">
-        <f>B15+O15</f>
+        <f t="shared" si="0"/>
         <v>242</v>
       </c>
       <c r="D15" s="1"/>
@@ -1601,7 +2295,7 @@
         <v>500</v>
       </c>
       <c r="G15" s="1">
-        <f>F15+O15</f>
+        <f t="shared" si="1"/>
         <v>592</v>
       </c>
       <c r="H15" s="1"/>
@@ -1611,7 +2305,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1619,7 +2313,7 @@
         <v>150</v>
       </c>
       <c r="C16" s="1">
-        <f>B16+O16</f>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="D16" s="1"/>
@@ -1628,7 +2322,7 @@
         <v>500</v>
       </c>
       <c r="G16" s="1">
-        <f>F16+O16</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
       <c r="H16" s="1"/>
@@ -1638,7 +2332,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1646,7 +2340,7 @@
         <v>150</v>
       </c>
       <c r="C17" s="1">
-        <f>B17+O17</f>
+        <f t="shared" si="0"/>
         <v>254</v>
       </c>
       <c r="D17" s="1"/>
@@ -1655,7 +2349,7 @@
         <v>500</v>
       </c>
       <c r="G17" s="1">
-        <f>F17+O17</f>
+        <f t="shared" si="1"/>
         <v>604</v>
       </c>
       <c r="H17" s="1"/>
@@ -1665,7 +2359,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1673,7 +2367,7 @@
         <v>175</v>
       </c>
       <c r="C18" s="1">
-        <f>B18+O18</f>
+        <f t="shared" si="0"/>
         <v>279</v>
       </c>
       <c r="D18" s="1"/>
@@ -1682,7 +2376,7 @@
         <v>600</v>
       </c>
       <c r="G18" s="1">
-        <f>F18+O18</f>
+        <f t="shared" si="1"/>
         <v>704</v>
       </c>
       <c r="H18" s="1"/>
@@ -1692,7 +2386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1700,7 +2394,7 @@
         <v>175</v>
       </c>
       <c r="C19" s="1">
-        <f>B19+O19</f>
+        <f t="shared" si="0"/>
         <v>279</v>
       </c>
       <c r="D19" s="1"/>
@@ -1709,7 +2403,7 @@
         <v>600</v>
       </c>
       <c r="G19" s="1">
-        <f>F19+O19</f>
+        <f t="shared" si="1"/>
         <v>704</v>
       </c>
       <c r="H19" s="1"/>
@@ -1719,7 +2413,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1727,7 +2421,7 @@
         <v>175</v>
       </c>
       <c r="C20" s="1">
-        <f>B20+O20</f>
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
       <c r="D20" s="1"/>
@@ -1736,7 +2430,7 @@
         <v>600</v>
       </c>
       <c r="G20" s="1">
-        <f>F20+O20</f>
+        <f t="shared" si="1"/>
         <v>710</v>
       </c>
       <c r="H20" s="1"/>
@@ -1746,7 +2440,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1754,7 +2448,7 @@
         <v>175</v>
       </c>
       <c r="C21" s="1">
-        <f>B21+O21</f>
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
       <c r="D21" s="1"/>
@@ -1763,7 +2457,7 @@
         <v>600</v>
       </c>
       <c r="G21" s="1">
-        <f>F21+O21</f>
+        <f t="shared" si="1"/>
         <v>710</v>
       </c>
       <c r="H21" s="1"/>
@@ -1773,7 +2467,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -1781,7 +2475,7 @@
         <v>175</v>
       </c>
       <c r="C22" s="1">
-        <f>B22+O22</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="D22" s="1"/>
@@ -1790,7 +2484,7 @@
         <v>600</v>
       </c>
       <c r="G22" s="1">
-        <f>F22+O22</f>
+        <f t="shared" si="1"/>
         <v>734</v>
       </c>
       <c r="H22" s="1"/>
@@ -1800,7 +2494,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1808,7 +2502,7 @@
         <v>175</v>
       </c>
       <c r="C23" s="1">
-        <f>B23+O23</f>
+        <f t="shared" si="0"/>
         <v>309</v>
       </c>
       <c r="D23" s="1"/>
@@ -1817,7 +2511,7 @@
         <v>600</v>
       </c>
       <c r="G23" s="1">
-        <f>F23+O23</f>
+        <f t="shared" si="1"/>
         <v>734</v>
       </c>
       <c r="H23" s="1"/>
@@ -1827,7 +2521,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1835,7 +2529,7 @@
         <v>175</v>
       </c>
       <c r="C24" s="1">
-        <f>B24+O24</f>
+        <f t="shared" si="0"/>
         <v>326</v>
       </c>
       <c r="D24" s="1"/>
@@ -1844,7 +2538,7 @@
         <v>600</v>
       </c>
       <c r="G24" s="1">
-        <f>F24+O24</f>
+        <f t="shared" si="1"/>
         <v>751</v>
       </c>
       <c r="H24" s="1"/>
@@ -1854,7 +2548,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1862,7 +2556,7 @@
         <v>175</v>
       </c>
       <c r="C25" s="1">
-        <f>B25+O25</f>
+        <f t="shared" si="0"/>
         <v>337</v>
       </c>
       <c r="D25" s="1"/>
@@ -1871,7 +2565,7 @@
         <v>700</v>
       </c>
       <c r="G25" s="1">
-        <f>F25+O25</f>
+        <f t="shared" si="1"/>
         <v>862</v>
       </c>
       <c r="H25" s="1"/>
@@ -1881,7 +2575,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1889,7 +2583,7 @@
         <v>175</v>
       </c>
       <c r="C26" s="1">
-        <f>B26+O26</f>
+        <f t="shared" si="0"/>
         <v>342</v>
       </c>
       <c r="D26" s="1"/>
@@ -1898,7 +2592,7 @@
         <v>850</v>
       </c>
       <c r="G26" s="1">
-        <f>F26+O26</f>
+        <f t="shared" si="1"/>
         <v>1017</v>
       </c>
       <c r="H26" s="1"/>
@@ -1908,7 +2602,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -1916,7 +2610,7 @@
         <v>225</v>
       </c>
       <c r="C27" s="1">
-        <f>B27+O27</f>
+        <f t="shared" si="0"/>
         <v>402</v>
       </c>
       <c r="D27" s="1"/>
@@ -1925,7 +2619,7 @@
         <v>950</v>
       </c>
       <c r="G27" s="1">
-        <f>F27+O27</f>
+        <f t="shared" si="1"/>
         <v>1127</v>
       </c>
       <c r="H27" s="1"/>
@@ -1935,7 +2629,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -1943,7 +2637,7 @@
         <v>225</v>
       </c>
       <c r="C28" s="1">
-        <f>B28+O28</f>
+        <f t="shared" si="0"/>
         <v>402</v>
       </c>
       <c r="D28" s="1"/>
@@ -1952,7 +2646,7 @@
         <v>1300</v>
       </c>
       <c r="G28" s="1">
-        <f>F28+O28</f>
+        <f t="shared" si="1"/>
         <v>1477</v>
       </c>
       <c r="H28" s="1"/>
@@ -1962,7 +2656,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -1970,7 +2664,7 @@
         <v>225</v>
       </c>
       <c r="C29" s="1">
-        <f>B29+O29</f>
+        <f t="shared" si="0"/>
         <v>422</v>
       </c>
       <c r="D29" s="1"/>
@@ -1979,7 +2673,7 @@
         <v>1800</v>
       </c>
       <c r="G29" s="1">
-        <f>F29+O29</f>
+        <f t="shared" si="1"/>
         <v>1997</v>
       </c>
       <c r="H29" s="1"/>
@@ -1989,7 +2683,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1997,7 +2691,7 @@
         <v>242</v>
       </c>
       <c r="C30" s="1">
-        <f>B30+O30</f>
+        <f t="shared" si="0"/>
         <v>439</v>
       </c>
       <c r="D30" s="1"/>
@@ -2006,7 +2700,7 @@
         <v>1800</v>
       </c>
       <c r="G30" s="1">
-        <f>F30+O30</f>
+        <f t="shared" si="1"/>
         <v>1997</v>
       </c>
       <c r="H30" s="1"/>
@@ -2016,7 +2710,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2024,7 +2718,7 @@
         <v>256</v>
       </c>
       <c r="C31" s="1">
-        <f>B31+O31</f>
+        <f t="shared" si="0"/>
         <v>453</v>
       </c>
       <c r="D31" s="1"/>
@@ -2033,7 +2727,7 @@
         <v>1800</v>
       </c>
       <c r="G31" s="1">
-        <f>F31+O31</f>
+        <f t="shared" si="1"/>
         <v>1997</v>
       </c>
       <c r="H31" s="1"/>
@@ -2043,7 +2737,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2051,7 +2745,7 @@
         <v>256</v>
       </c>
       <c r="C32" s="1">
-        <f>B32+O32</f>
+        <f t="shared" si="0"/>
         <v>468</v>
       </c>
       <c r="D32" s="1"/>
@@ -2060,7 +2754,7 @@
         <v>1900</v>
       </c>
       <c r="G32" s="1">
-        <f>F32+O32</f>
+        <f t="shared" si="1"/>
         <v>2112</v>
       </c>
       <c r="H32" s="1"/>
@@ -2070,7 +2764,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2078,7 +2772,7 @@
         <v>256</v>
       </c>
       <c r="C33" s="1">
-        <f>B33+O33</f>
+        <f t="shared" si="0"/>
         <v>478</v>
       </c>
       <c r="D33" s="1"/>
@@ -2087,7 +2781,7 @@
         <v>1900</v>
       </c>
       <c r="G33" s="1">
-        <f>F33+O33</f>
+        <f t="shared" si="1"/>
         <v>2122</v>
       </c>
       <c r="H33" s="1"/>
@@ -2097,7 +2791,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2105,7 +2799,7 @@
         <v>364</v>
       </c>
       <c r="C34" s="1">
-        <f>B34+O34</f>
+        <f t="shared" si="0"/>
         <v>529</v>
       </c>
       <c r="D34" s="1"/>
@@ -2114,7 +2808,7 @@
         <v>2074</v>
       </c>
       <c r="G34" s="1">
-        <f>F34+O34</f>
+        <f t="shared" si="1"/>
         <v>2239</v>
       </c>
       <c r="H34" s="1"/>
@@ -2124,7 +2818,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2132,7 +2826,7 @@
         <v>364</v>
       </c>
       <c r="C35" s="1">
-        <f>B35+O35</f>
+        <f t="shared" si="0"/>
         <v>529</v>
       </c>
       <c r="D35" s="1"/>
@@ -2141,7 +2835,7 @@
         <v>2074</v>
       </c>
       <c r="G35" s="1">
-        <f>F35+O35</f>
+        <f t="shared" si="1"/>
         <v>2239</v>
       </c>
       <c r="H35" s="1"/>
@@ -2151,7 +2845,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2159,7 +2853,7 @@
         <v>364</v>
       </c>
       <c r="C36" s="1">
-        <f>B36+O36</f>
+        <f t="shared" ref="C36:C67" si="2">B36+O36</f>
         <v>566</v>
       </c>
       <c r="D36" s="1"/>
@@ -2168,7 +2862,7 @@
         <v>2074</v>
       </c>
       <c r="G36" s="1">
-        <f>F36+O36</f>
+        <f t="shared" ref="G36:G67" si="3">F36+O36</f>
         <v>2276</v>
       </c>
       <c r="H36" s="1"/>
@@ -2178,7 +2872,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2186,7 +2880,7 @@
         <v>364</v>
       </c>
       <c r="C37" s="1">
-        <f>B37+O37</f>
+        <f t="shared" si="2"/>
         <v>599</v>
       </c>
       <c r="D37" s="1"/>
@@ -2195,7 +2889,7 @@
         <v>2074</v>
       </c>
       <c r="G37" s="1">
-        <f>F37+O37</f>
+        <f t="shared" si="3"/>
         <v>2309</v>
       </c>
       <c r="H37" s="1"/>
@@ -2205,7 +2899,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2213,7 +2907,7 @@
         <v>436</v>
       </c>
       <c r="C38" s="1">
-        <f>B38+O38</f>
+        <f t="shared" si="2"/>
         <v>692</v>
       </c>
       <c r="D38" s="1"/>
@@ -2222,7 +2916,7 @@
         <v>2260</v>
       </c>
       <c r="G38" s="1">
-        <f>F38+O38</f>
+        <f t="shared" si="3"/>
         <v>2516</v>
       </c>
       <c r="H38" s="1"/>
@@ -2232,7 +2926,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -2240,7 +2934,7 @@
         <v>436</v>
       </c>
       <c r="C39" s="1">
-        <f>B39+O39</f>
+        <f t="shared" si="2"/>
         <v>702</v>
       </c>
       <c r="D39" s="1"/>
@@ -2249,7 +2943,7 @@
         <v>2260</v>
       </c>
       <c r="G39" s="1">
-        <f>F39+O39</f>
+        <f t="shared" si="3"/>
         <v>2526</v>
       </c>
       <c r="H39" s="1"/>
@@ -2259,7 +2953,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -2267,7 +2961,7 @@
         <v>480</v>
       </c>
       <c r="C40" s="1">
-        <f>B40+O40</f>
+        <f t="shared" si="2"/>
         <v>766</v>
       </c>
       <c r="D40" s="1"/>
@@ -2276,7 +2970,7 @@
         <v>2842</v>
       </c>
       <c r="G40" s="1">
-        <f>F40+O40</f>
+        <f t="shared" si="3"/>
         <v>3128</v>
       </c>
       <c r="H40" s="1"/>
@@ -2286,7 +2980,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -2294,7 +2988,7 @@
         <v>480</v>
       </c>
       <c r="C41" s="1">
-        <f>B41+O41</f>
+        <f t="shared" si="2"/>
         <v>773</v>
       </c>
       <c r="D41" s="1"/>
@@ -2303,7 +2997,7 @@
         <v>3100</v>
       </c>
       <c r="G41" s="1">
-        <f>F41+O41</f>
+        <f t="shared" si="3"/>
         <v>3393</v>
       </c>
       <c r="H41" s="1"/>
@@ -2313,7 +3007,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -2321,7 +3015,7 @@
         <v>480</v>
       </c>
       <c r="C42" s="1">
-        <f>B42+O42</f>
+        <f t="shared" si="2"/>
         <v>794</v>
       </c>
       <c r="D42" s="1"/>
@@ -2330,7 +3024,7 @@
         <v>3400</v>
       </c>
       <c r="G42" s="1">
-        <f>F42+O42</f>
+        <f t="shared" si="3"/>
         <v>3714</v>
       </c>
       <c r="H42" s="1"/>
@@ -2340,7 +3034,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -2348,7 +3042,7 @@
         <v>480</v>
       </c>
       <c r="C43" s="1">
-        <f>B43+O43</f>
+        <f t="shared" si="2"/>
         <v>819</v>
       </c>
       <c r="D43" s="1"/>
@@ -2357,7 +3051,7 @@
         <v>3820</v>
       </c>
       <c r="G43" s="1">
-        <f>F43+O43</f>
+        <f t="shared" si="3"/>
         <v>4159</v>
       </c>
       <c r="H43" s="1"/>
@@ -2367,7 +3061,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -2375,7 +3069,7 @@
         <v>504</v>
       </c>
       <c r="C44" s="1">
-        <f>B44+O44</f>
+        <f t="shared" si="2"/>
         <v>845</v>
       </c>
       <c r="D44" s="1"/>
@@ -2384,7 +3078,7 @@
         <v>4106</v>
       </c>
       <c r="G44" s="1">
-        <f>F44+O44</f>
+        <f t="shared" si="3"/>
         <v>4447</v>
       </c>
       <c r="H44" s="1"/>
@@ -2394,7 +3088,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -2402,7 +3096,7 @@
         <v>504</v>
       </c>
       <c r="C45" s="1">
-        <f>B45+O45</f>
+        <f t="shared" si="2"/>
         <v>876</v>
       </c>
       <c r="D45" s="1"/>
@@ -2411,7 +3105,7 @@
         <v>4458</v>
       </c>
       <c r="G45" s="1">
-        <f>F45+O45</f>
+        <f t="shared" si="3"/>
         <v>4830</v>
       </c>
       <c r="H45" s="1"/>
@@ -2421,7 +3115,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -2429,7 +3123,7 @@
         <v>604</v>
       </c>
       <c r="C46" s="1">
-        <f>B46+O46</f>
+        <f t="shared" si="2"/>
         <v>1008</v>
       </c>
       <c r="D46" s="1"/>
@@ -2438,7 +3132,7 @@
         <v>5106</v>
       </c>
       <c r="G46" s="1">
-        <f>F46+O46</f>
+        <f t="shared" si="3"/>
         <v>5510</v>
       </c>
       <c r="H46" s="1"/>
@@ -2448,7 +3142,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -2456,7 +3150,7 @@
         <v>604</v>
       </c>
       <c r="C47" s="1">
-        <f>B47+O47</f>
+        <f t="shared" si="2"/>
         <v>1117</v>
       </c>
       <c r="D47" s="1"/>
@@ -2465,7 +3159,7 @@
         <v>5230</v>
       </c>
       <c r="G47" s="1">
-        <f>F47+O47</f>
+        <f t="shared" si="3"/>
         <v>5743</v>
       </c>
       <c r="H47" s="1"/>
@@ -2475,7 +3169,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2483,7 +3177,7 @@
         <v>447</v>
       </c>
       <c r="C48" s="1">
-        <f>B48+O48</f>
+        <f t="shared" si="2"/>
         <v>921</v>
       </c>
       <c r="D48" s="1"/>
@@ -2492,7 +3186,7 @@
         <v>6642</v>
       </c>
       <c r="G48" s="1">
-        <f>F48+O48</f>
+        <f t="shared" si="3"/>
         <v>7116</v>
       </c>
       <c r="H48" s="1"/>
@@ -2502,7 +3196,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -2510,7 +3204,7 @@
         <v>822</v>
       </c>
       <c r="C49" s="1">
-        <f>B49+O49</f>
+        <f t="shared" si="2"/>
         <v>1284</v>
       </c>
       <c r="D49" s="1"/>
@@ -2519,7 +3213,7 @@
         <v>7406</v>
       </c>
       <c r="G49" s="1">
-        <f>F49+O49</f>
+        <f t="shared" si="3"/>
         <v>7868</v>
       </c>
       <c r="H49" s="1"/>
@@ -2529,7 +3223,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -2537,7 +3231,7 @@
         <v>846</v>
       </c>
       <c r="C50" s="1">
-        <f>B50+O50</f>
+        <f t="shared" si="2"/>
         <v>1454</v>
       </c>
       <c r="D50" s="1"/>
@@ -2546,7 +3240,7 @@
         <v>7888</v>
       </c>
       <c r="G50" s="1">
-        <f>F50+O50</f>
+        <f t="shared" si="3"/>
         <v>8496</v>
       </c>
       <c r="H50" s="1"/>
@@ -2556,7 +3250,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="51" spans="1:15" hidden="1">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -2564,7 +3258,7 @@
         <v>874</v>
       </c>
       <c r="C51" s="1">
-        <f>B51+O51</f>
+        <f t="shared" si="2"/>
         <v>1569</v>
       </c>
       <c r="D51" s="1"/>
@@ -2573,7 +3267,7 @@
         <v>8400</v>
       </c>
       <c r="G51" s="1">
-        <f>F51+O51</f>
+        <f t="shared" si="3"/>
         <v>9095</v>
       </c>
       <c r="H51" s="1"/>
@@ -2583,7 +3277,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="52" spans="1:15" hidden="1">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -2591,7 +3285,7 @@
         <v>948</v>
       </c>
       <c r="C52" s="1">
-        <f>B52+O52</f>
+        <f t="shared" si="2"/>
         <v>1686</v>
       </c>
       <c r="D52" s="1"/>
@@ -2600,7 +3294,7 @@
         <v>9064</v>
       </c>
       <c r="G52" s="1">
-        <f>F52+O52</f>
+        <f t="shared" si="3"/>
         <v>9802</v>
       </c>
       <c r="H52" s="1"/>
@@ -2610,7 +3304,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2618,7 +3312,7 @@
         <v>1386</v>
       </c>
       <c r="C53" s="1">
-        <f>B53+O53</f>
+        <f t="shared" si="2"/>
         <v>2161</v>
       </c>
       <c r="D53" s="1"/>
@@ -2627,7 +3321,7 @@
         <v>9918</v>
       </c>
       <c r="G53" s="1">
-        <f>F53+O53</f>
+        <f t="shared" si="3"/>
         <v>10693</v>
       </c>
       <c r="H53" s="1"/>
@@ -2637,7 +3331,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -2645,7 +3339,7 @@
         <v>1428</v>
       </c>
       <c r="C54" s="1">
-        <f>B54+O54</f>
+        <f t="shared" si="2"/>
         <v>2224</v>
       </c>
       <c r="D54" s="1"/>
@@ -2654,7 +3348,7 @@
         <v>10414</v>
       </c>
       <c r="G54" s="1">
-        <f>F54+O54</f>
+        <f t="shared" si="3"/>
         <v>11210</v>
       </c>
       <c r="H54" s="1"/>
@@ -2664,7 +3358,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -2672,7 +3366,7 @@
         <v>1456</v>
       </c>
       <c r="C55" s="1">
-        <f>B55+O55</f>
+        <f t="shared" si="2"/>
         <v>2262</v>
       </c>
       <c r="D55" s="1"/>
@@ -2681,7 +3375,7 @@
         <v>10622</v>
       </c>
       <c r="G55" s="1">
-        <f>F55+O55</f>
+        <f t="shared" si="3"/>
         <v>11428</v>
       </c>
       <c r="H55" s="1"/>
@@ -2691,7 +3385,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -2699,7 +3393,7 @@
         <v>1528</v>
       </c>
       <c r="C56" s="1">
-        <f>B56+O56</f>
+        <f t="shared" si="2"/>
         <v>2365</v>
       </c>
       <c r="D56" s="1"/>
@@ -2708,7 +3402,7 @@
         <v>10694</v>
       </c>
       <c r="G56" s="1">
-        <f>F56+O56</f>
+        <f t="shared" si="3"/>
         <v>11531</v>
       </c>
       <c r="H56" s="1"/>
@@ -2726,7 +3420,7 @@
         <v>1860</v>
       </c>
       <c r="C57" s="1">
-        <f>B57+O57</f>
+        <f t="shared" si="2"/>
         <v>2768</v>
       </c>
       <c r="D57" s="2">
@@ -2740,7 +3434,7 @@
         <v>11026</v>
       </c>
       <c r="G57" s="1">
-        <f>F57+O57</f>
+        <f t="shared" si="3"/>
         <v>11934</v>
       </c>
       <c r="H57" s="2">
@@ -2782,44 +3476,44 @@
         <v>2328</v>
       </c>
       <c r="C58" s="1">
-        <f>B58+O58</f>
+        <f t="shared" si="2"/>
         <v>3277</v>
       </c>
       <c r="D58" s="2">
         <v>12987</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" ref="E58:E73" si="0">C58*D58</f>
+        <f t="shared" ref="E58:E73" si="4">C58*D58</f>
         <v>42558399</v>
       </c>
       <c r="F58" s="1">
         <v>12320</v>
       </c>
       <c r="G58" s="1">
-        <f>F58+O58</f>
+        <f t="shared" si="3"/>
         <v>13269</v>
       </c>
       <c r="H58" s="2">
         <v>2974</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" ref="I58:I73" si="1">G58*H58</f>
+        <f t="shared" ref="I58:I73" si="5">G58*H58</f>
         <v>39462006</v>
       </c>
       <c r="J58" s="2">
-        <f t="shared" ref="J58:J73" si="2">E58+I58</f>
+        <f t="shared" ref="J58:J73" si="6">E58+I58</f>
         <v>82020405</v>
       </c>
       <c r="K58" s="4">
-        <f t="shared" ref="K58:K73" si="3">H58/(D58+H58)</f>
+        <f t="shared" ref="K58:K73" si="7">H58/(D58+H58)</f>
         <v>0.18632917736983898</v>
       </c>
       <c r="L58" s="4">
-        <f t="shared" ref="L58:L73" si="4">I58/J58</f>
+        <f t="shared" ref="L58:L73" si="8">I58/J58</f>
         <v>0.48112425194681741</v>
       </c>
       <c r="M58" s="4">
-        <f t="shared" ref="M58:M73" si="5">1-K58</f>
+        <f t="shared" ref="M58:M73" si="9">1-K58</f>
         <v>0.81367082263016099</v>
       </c>
       <c r="N58" s="4">
@@ -2838,48 +3532,48 @@
         <v>2814</v>
       </c>
       <c r="C59" s="1">
-        <f>B59+O59</f>
+        <f t="shared" si="2"/>
         <v>3856</v>
       </c>
       <c r="D59" s="2">
         <v>13170</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>50783520</v>
       </c>
       <c r="F59" s="1">
         <v>14098</v>
       </c>
       <c r="G59" s="1">
-        <f>F59+O59</f>
+        <f t="shared" si="3"/>
         <v>15140</v>
       </c>
       <c r="H59" s="2">
         <v>2974</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>45026360</v>
       </c>
       <c r="J59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>95809880</v>
       </c>
       <c r="K59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.18421704658077304</v>
       </c>
       <c r="L59" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.46995529062347224</v>
       </c>
       <c r="M59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.81578295341922691</v>
       </c>
       <c r="N59" s="4">
-        <f t="shared" ref="N59:N73" si="6">1-L59</f>
+        <f t="shared" ref="N59:N73" si="10">1-L59</f>
         <v>0.5300447093765277</v>
       </c>
       <c r="O59" s="1">
@@ -2894,48 +3588,48 @@
         <v>2955</v>
       </c>
       <c r="C60" s="1">
-        <f>B60+O60</f>
+        <f t="shared" si="2"/>
         <v>4072</v>
       </c>
       <c r="D60" s="2">
         <v>13496</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>54955712</v>
       </c>
       <c r="F60" s="1">
         <v>14803</v>
       </c>
       <c r="G60" s="1">
-        <f>F60+O60</f>
+        <f t="shared" si="3"/>
         <v>15920</v>
       </c>
       <c r="H60" s="2">
         <v>3029</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>48221680</v>
       </c>
       <c r="J60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>103177392</v>
       </c>
       <c r="K60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.1832980332829047</v>
       </c>
       <c r="L60" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.46736672700546644</v>
       </c>
       <c r="M60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.81670196671709527</v>
       </c>
       <c r="N60" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.53263327299453356</v>
       </c>
       <c r="O60" s="1">
@@ -2950,48 +3644,48 @@
         <v>3205</v>
       </c>
       <c r="C61" s="1">
-        <f>B61+O61</f>
+        <f t="shared" si="2"/>
         <v>4451</v>
       </c>
       <c r="D61" s="2">
         <v>13748</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>61192348</v>
       </c>
       <c r="F61" s="1">
         <v>16303</v>
       </c>
       <c r="G61" s="1">
-        <f>F61+O61</f>
+        <f t="shared" si="3"/>
         <v>17549</v>
       </c>
       <c r="H61" s="2">
         <v>3016</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>52927784</v>
       </c>
       <c r="J61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>114120132</v>
       </c>
       <c r="K61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17990932951562874</v>
       </c>
       <c r="L61" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.46379006992385885</v>
       </c>
       <c r="M61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.82009067048437123</v>
       </c>
       <c r="N61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.53620993007614115</v>
       </c>
       <c r="O61" s="1">
@@ -3006,48 +3700,48 @@
         <v>3205</v>
       </c>
       <c r="C62" s="1">
-        <f>B62+O62</f>
+        <f t="shared" si="2"/>
         <v>4613</v>
       </c>
       <c r="D62" s="2">
         <v>14131</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>65186303</v>
       </c>
       <c r="F62" s="1">
         <v>17003</v>
       </c>
       <c r="G62" s="1">
-        <f>F62+O62</f>
+        <f t="shared" si="3"/>
         <v>18411</v>
       </c>
       <c r="H62" s="2">
         <v>2993</v>
       </c>
       <c r="I62" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>55104123</v>
       </c>
       <c r="J62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>120290426</v>
       </c>
       <c r="K62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17478392898855408</v>
       </c>
       <c r="L62" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.45809234227834555</v>
       </c>
       <c r="M62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.8252160710114459</v>
       </c>
       <c r="N62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.54190765772165439</v>
       </c>
       <c r="O62" s="1">
@@ -3062,48 +3756,48 @@
         <v>3455</v>
       </c>
       <c r="C63" s="1">
-        <f>B63+O63</f>
+        <f t="shared" si="2"/>
         <v>5033</v>
       </c>
       <c r="D63" s="2">
         <v>14513</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>73043929</v>
       </c>
       <c r="F63" s="1">
         <v>18103</v>
       </c>
       <c r="G63" s="1">
-        <f>F63+O63</f>
+        <f t="shared" si="3"/>
         <v>19681</v>
       </c>
       <c r="H63" s="2">
         <v>3115</v>
       </c>
       <c r="I63" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>61306315</v>
       </c>
       <c r="J63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>134350244</v>
       </c>
       <c r="K63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17670751077830724</v>
       </c>
       <c r="L63" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.45631710947990539</v>
       </c>
       <c r="M63" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.82329248922169274</v>
       </c>
       <c r="N63" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.54368289052009455</v>
       </c>
       <c r="O63" s="1">
@@ -3118,48 +3812,48 @@
         <v>3705</v>
       </c>
       <c r="C64" s="1">
-        <f>B64+O64</f>
+        <f t="shared" si="2"/>
         <v>5340</v>
       </c>
       <c r="D64" s="2">
         <v>14766</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>78850440</v>
       </c>
       <c r="F64" s="1">
         <v>19353</v>
       </c>
       <c r="G64" s="1">
-        <f>F64+O64</f>
+        <f t="shared" si="3"/>
         <v>20988</v>
       </c>
       <c r="H64" s="2">
         <v>3129</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>65671452</v>
       </c>
       <c r="J64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>144521892</v>
       </c>
       <c r="K64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17485331098072088</v>
       </c>
       <c r="L64" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.45440487313852768</v>
       </c>
       <c r="M64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.82514668901927912</v>
       </c>
       <c r="N64" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.54559512686147227</v>
       </c>
       <c r="O64" s="1">
@@ -3174,48 +3868,48 @@
         <v>3705</v>
       </c>
       <c r="C65" s="1">
-        <f>B65+O65</f>
+        <f t="shared" si="2"/>
         <v>5397</v>
       </c>
       <c r="D65" s="2">
         <v>14838</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>80080686</v>
       </c>
       <c r="F65" s="1">
         <v>20603</v>
       </c>
       <c r="G65" s="1">
-        <f>F65+O65</f>
+        <f t="shared" si="3"/>
         <v>22295</v>
       </c>
       <c r="H65" s="2">
         <v>3143</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>70073185</v>
       </c>
       <c r="J65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>150153871</v>
       </c>
       <c r="K65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.1747956175963517</v>
       </c>
       <c r="L65" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.46667584747115842</v>
       </c>
       <c r="M65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.82520438240364835</v>
       </c>
       <c r="N65" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.53332415252884158</v>
       </c>
       <c r="O65" s="1">
@@ -3230,48 +3924,48 @@
         <v>3865</v>
       </c>
       <c r="C66" s="1">
-        <f>B66+O66</f>
+        <f t="shared" si="2"/>
         <v>5625</v>
       </c>
       <c r="D66" s="2">
         <v>15111</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>84999375</v>
       </c>
       <c r="F66" s="1">
         <v>21753</v>
       </c>
       <c r="G66" s="1">
-        <f>F66+O66</f>
+        <f t="shared" si="3"/>
         <v>23513</v>
       </c>
       <c r="H66" s="2">
         <v>3468</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>81543084</v>
       </c>
       <c r="J66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>166542459</v>
       </c>
       <c r="K66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.18666236072985629</v>
       </c>
       <c r="L66" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.48962339387579235</v>
       </c>
       <c r="M66" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.81333763927014369</v>
       </c>
       <c r="N66" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.51037660612420765</v>
       </c>
       <c r="O66" s="1">
@@ -3286,48 +3980,48 @@
         <v>4815</v>
       </c>
       <c r="C67" s="1">
-        <f>B67+O67</f>
+        <f t="shared" si="2"/>
         <v>6665</v>
       </c>
       <c r="D67" s="2">
         <v>14893</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>99261845</v>
       </c>
       <c r="F67" s="1">
         <v>23430</v>
       </c>
       <c r="G67" s="1">
-        <f>F67+O67</f>
+        <f t="shared" si="3"/>
         <v>25280</v>
       </c>
       <c r="H67" s="2">
         <v>3537</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>89415360</v>
       </c>
       <c r="J67" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>188677205</v>
       </c>
       <c r="K67" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.1919153553988063</v>
       </c>
       <c r="L67" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.47390653258829013</v>
       </c>
       <c r="M67" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.80808464460119367</v>
       </c>
       <c r="N67" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.52609346741170993</v>
       </c>
       <c r="O67" s="1">
@@ -3342,48 +4036,48 @@
         <v>5128</v>
       </c>
       <c r="C68" s="1">
-        <f>B68+O68</f>
+        <f t="shared" ref="C68:C73" si="11">B68+O68</f>
         <v>7009</v>
       </c>
       <c r="D68" s="2">
         <v>14901</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>104441109</v>
       </c>
       <c r="F68" s="1">
         <v>24953</v>
       </c>
       <c r="G68" s="1">
-        <f>F68+O68</f>
+        <f t="shared" ref="G68:G73" si="12">F68+O68</f>
         <v>26834</v>
       </c>
       <c r="H68" s="2">
         <v>3602</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>96656068</v>
       </c>
       <c r="J68" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>201097177</v>
       </c>
       <c r="K68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.1946711344106361</v>
       </c>
       <c r="L68" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.48064358456906631</v>
       </c>
       <c r="M68" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.8053288655893639</v>
       </c>
       <c r="N68" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.51935641543093369</v>
       </c>
       <c r="O68" s="1">
@@ -3398,48 +4092,48 @@
         <v>5823</v>
       </c>
       <c r="C69" s="1">
-        <f>B69+O69</f>
+        <f t="shared" si="11"/>
         <v>7690</v>
       </c>
       <c r="D69" s="2">
         <v>14838</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>114104220</v>
       </c>
       <c r="F69" s="1">
         <v>26575</v>
       </c>
       <c r="G69" s="1">
-        <f>F69+O69</f>
+        <f t="shared" si="12"/>
         <v>28442</v>
       </c>
       <c r="H69" s="2">
         <v>3532</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>100457144</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>214561364</v>
       </c>
       <c r="K69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19227000544365813</v>
       </c>
       <c r="L69" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.46819773200174103</v>
       </c>
       <c r="M69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.80772999455634187</v>
       </c>
       <c r="N69" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.53180226799825903</v>
       </c>
       <c r="O69" s="1">
@@ -3454,48 +4148,48 @@
         <v>6423</v>
       </c>
       <c r="C70" s="1">
-        <f>B70+O70</f>
+        <f t="shared" si="11"/>
         <v>8340</v>
       </c>
       <c r="D70" s="2">
         <v>14808</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>123498720</v>
       </c>
       <c r="F70" s="1">
         <v>28205</v>
       </c>
       <c r="G70" s="1">
-        <f>F70+O70</f>
+        <f t="shared" si="12"/>
         <v>30122</v>
       </c>
       <c r="H70" s="2">
         <v>3542</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>106692124</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>230190844</v>
       </c>
       <c r="K70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19302452316076293</v>
       </c>
       <c r="L70" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.46349421265426177</v>
       </c>
       <c r="M70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.80697547683923709</v>
       </c>
       <c r="N70" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.53650578734573817</v>
       </c>
       <c r="O70" s="1">
@@ -3510,48 +4204,48 @@
         <v>6423</v>
       </c>
       <c r="C71" s="1">
-        <f>B71+O71</f>
+        <f t="shared" si="11"/>
         <v>8346</v>
       </c>
       <c r="D71" s="2">
         <v>14871</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>124113366</v>
       </c>
       <c r="F71" s="1">
         <v>31764</v>
       </c>
       <c r="G71" s="1">
-        <f>F71+O71</f>
+        <f t="shared" si="12"/>
         <v>33687</v>
       </c>
       <c r="H71" s="2">
         <v>3544</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>119386728</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>243500094</v>
       </c>
       <c r="K71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19245180559326636</v>
       </c>
       <c r="L71" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.49029438157013605</v>
       </c>
       <c r="M71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.80754819440673364</v>
       </c>
       <c r="N71" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.50970561842986395</v>
       </c>
       <c r="O71" s="1">
@@ -3566,48 +4260,48 @@
         <v>6648</v>
       </c>
       <c r="C72" s="1">
-        <f>B72+O72</f>
+        <f t="shared" si="11"/>
         <v>8591</v>
       </c>
       <c r="D72" s="2">
         <v>15052</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>129311732</v>
       </c>
       <c r="F72" s="1">
         <v>31730</v>
       </c>
       <c r="G72" s="1">
-        <f>F72+O72</f>
+        <f t="shared" si="12"/>
         <v>33673</v>
       </c>
       <c r="H72" s="2">
         <v>3471</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>116878983</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>246190715</v>
       </c>
       <c r="K72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.187388651946229</v>
       </c>
       <c r="L72" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.47474976056672163</v>
       </c>
       <c r="M72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.812611348053771</v>
       </c>
       <c r="N72" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.52525023943327831</v>
       </c>
       <c r="O72" s="1">
@@ -3622,48 +4316,48 @@
         <v>6882</v>
       </c>
       <c r="C73" s="1">
-        <f>B73+O73</f>
+        <f t="shared" si="11"/>
         <v>8835</v>
       </c>
       <c r="D73" s="2">
         <v>15487</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>136827645</v>
       </c>
       <c r="F73" s="1">
         <v>31963</v>
       </c>
       <c r="G73" s="1">
-        <f>F73+O73</f>
+        <f t="shared" si="12"/>
         <v>33916</v>
       </c>
       <c r="H73" s="2">
         <v>3375</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>114466500</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>251294145</v>
       </c>
       <c r="K73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17893118439189906</v>
       </c>
       <c r="L73" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.45550802626141568</v>
       </c>
       <c r="M73" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.82106881560810097</v>
       </c>
       <c r="N73" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.54449197373858427</v>
       </c>
       <c r="O73" s="1">
@@ -3686,166 +4380,179 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW20"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
+    <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="20" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.1640625" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
+    <col min="25" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.1640625" customWidth="1"/>
+    <col min="30" max="30" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="0" hidden="1" customWidth="1"/>
+    <col min="36" max="37" width="0" hidden="1" customWidth="1"/>
+    <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
+    <col min="44" max="45" width="0" hidden="1" customWidth="1"/>
+    <col min="48" max="49" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
       <c r="A1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="7" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="6" t="s">
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="7" t="s">
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="24"/>
+      <c r="AF1" s="24"/>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="6" t="s">
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
+      <c r="AQ1" s="24"/>
+      <c r="AR1" s="24"/>
+      <c r="AS1" s="24"/>
+      <c r="AT1" s="24"/>
+      <c r="AU1" s="24"/>
+      <c r="AV1" s="24"/>
+      <c r="AW1" s="24"/>
     </row>
     <row r="2" spans="1:49">
       <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
       <c r="K2" s="5" t="s">
         <v>94</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="5"/>
+      <c r="O2" s="11"/>
       <c r="P2" s="5" t="s">
         <v>88</v>
       </c>
       <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="5"/>
+      <c r="S2" s="10"/>
       <c r="T2" s="5" t="s">
         <v>94</v>
       </c>
       <c r="U2" s="5"/>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
       <c r="Y2" s="5" t="s">
         <v>88</v>
       </c>
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
-      <c r="AB2" s="5" t="s">
+      <c r="AB2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
       <c r="AE2" s="5" t="s">
         <v>94</v>
       </c>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
-      <c r="AH2" s="5" t="s">
+      <c r="AH2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" s="5"/>
+      <c r="AI2" s="11"/>
       <c r="AJ2" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AK2" s="5"/>
-      <c r="AL2" s="5" t="s">
+      <c r="AL2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="5"/>
+      <c r="AM2" s="10"/>
       <c r="AN2" s="5" t="s">
         <v>94</v>
       </c>
       <c r="AO2" s="5"/>
-      <c r="AP2" s="5" t="s">
+      <c r="AP2" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="5"/>
+      <c r="AQ2" s="11"/>
       <c r="AR2" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AS2" s="5"/>
-      <c r="AT2" s="5" t="s">
+      <c r="AT2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="AU2" s="5"/>
+      <c r="AU2" s="10"/>
       <c r="AV2" s="5" t="s">
         <v>94</v>
       </c>
@@ -3853,31 +4560,31 @@
     </row>
     <row r="3" spans="1:49">
       <c r="A3" s="5"/>
-      <c r="B3" t="s">
+      <c r="B3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="23" t="s">
         <v>95</v>
       </c>
       <c r="K3" t="s">
@@ -3889,106 +4596,106 @@
       <c r="M3" t="s">
         <v>95</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="O3" t="s">
+      <c r="O3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="Q3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="V3" t="s">
+      <c r="V3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="W3" t="s">
+      <c r="W3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="X3" t="s">
+      <c r="X3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Y3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AB3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AC3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AE3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AF3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AG3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AJ3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AL3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AM3" t="s">
+      <c r="AM3" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="AN3" t="s">
+      <c r="AN3" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="AO3" t="s">
+      <c r="AO3" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AP3" t="s">
+      <c r="AP3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AQ3" t="s">
+      <c r="AQ3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" t="s">
+      <c r="AR3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AS3" t="s">
+      <c r="AS3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AT3" t="s">
+      <c r="AT3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="AU3" t="s">
+      <c r="AU3" s="23" t="s">
         <v>72</v>
       </c>
       <c r="AV3" t="s">
@@ -4002,833 +4709,1510 @@
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="12">
         <v>12901</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="12">
         <v>2943</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="13">
         <f>B4+C4</f>
         <v>15844</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="9">
         <v>20007</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="9">
         <v>2671</v>
       </c>
-      <c r="N4">
+      <c r="J4" s="9">
+        <f>H4+I4</f>
+        <v>22678</v>
+      </c>
+      <c r="N4" s="15">
         <v>2768</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="15">
         <v>11934</v>
       </c>
-      <c r="V4">
+      <c r="R4" s="16">
+        <v>4046.5</v>
+      </c>
+      <c r="S4" s="16">
+        <f>7330.25*2</f>
+        <v>14660.5</v>
+      </c>
+      <c r="V4" s="14">
         <v>35709968</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="14">
         <v>35121762</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="14">
         <f>V4+W4</f>
         <v>70831730</v>
       </c>
-      <c r="AH4" s="4">
+      <c r="AB4" s="20">
+        <f>H4*R4</f>
+        <v>80958325.5</v>
+      </c>
+      <c r="AC4" s="20">
+        <f>I4*S4</f>
+        <v>39158195.5</v>
+      </c>
+      <c r="AD4" s="20">
+        <f>AB4+AC4</f>
+        <v>120116521</v>
+      </c>
+      <c r="AH4" s="18">
         <v>0.50415213633776834</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="19">
         <v>0.4958478636622316</v>
       </c>
-      <c r="AP4" s="4">
+      <c r="AL4" s="21">
+        <f>AB4/AD4</f>
+        <v>0.67399825457815254</v>
+      </c>
+      <c r="AM4" s="21">
+        <f>AC4/AD4</f>
+        <v>0.32600174542184751</v>
+      </c>
+      <c r="AP4" s="18">
         <v>0.81425145165362278</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ4" s="19">
         <v>0.18574854834637719</v>
+      </c>
+      <c r="AT4" s="21">
+        <f>H4/J4</f>
+        <v>0.88222065437869301</v>
+      </c>
+      <c r="AU4" s="21">
+        <f>I4/J4</f>
+        <v>0.117779345621307</v>
       </c>
     </row>
     <row r="5" spans="1:49">
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="12">
         <v>12987</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="12">
         <v>2974</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="13">
         <f t="shared" ref="D5:D20" si="0">B5+C5</f>
         <v>15961</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="9">
         <v>20568</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="9">
         <v>2701</v>
       </c>
-      <c r="N5">
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:J20" si="1">H5+I5</f>
+        <v>23269</v>
+      </c>
+      <c r="N5" s="15">
         <v>3277</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="15">
         <v>13269</v>
       </c>
-      <c r="V5">
+      <c r="R5" s="16">
+        <f>2061.25*2</f>
+        <v>4122.5</v>
+      </c>
+      <c r="S5" s="16">
+        <f>7598.25*2</f>
+        <v>15196.5</v>
+      </c>
+      <c r="V5" s="14">
         <v>42558399</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="14">
         <v>39462006</v>
       </c>
-      <c r="X5">
-        <f t="shared" ref="X5:X20" si="1">V5+W5</f>
+      <c r="X5" s="14">
+        <f t="shared" ref="X5:X20" si="2">V5+W5</f>
         <v>82020405</v>
       </c>
-      <c r="AH5" s="4">
+      <c r="AB5" s="20">
+        <f t="shared" ref="AB5:AB20" si="3">H5*R5</f>
+        <v>84791580</v>
+      </c>
+      <c r="AC5" s="20">
+        <f t="shared" ref="AC5:AC20" si="4">I5*S5</f>
+        <v>41045746.5</v>
+      </c>
+      <c r="AD5" s="20">
+        <f t="shared" ref="AD5:AD20" si="5">AB5+AC5</f>
+        <v>125837326.5</v>
+      </c>
+      <c r="AH5" s="18">
         <v>0.51887574805318259</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="19">
         <v>0.48112425194681741</v>
       </c>
-      <c r="AP5" s="4">
+      <c r="AL5" s="21">
+        <f t="shared" ref="AL5:AL20" si="6">AB5/AD5</f>
+        <v>0.67381898804088147</v>
+      </c>
+      <c r="AM5" s="21">
+        <f t="shared" ref="AM5:AM20" si="7">AC5/AD5</f>
+        <v>0.32618101195911853</v>
+      </c>
+      <c r="AP5" s="18">
         <v>0.81367082263016099</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="19">
         <v>0.18632917736983898</v>
+      </c>
+      <c r="AT5" s="21">
+        <f t="shared" ref="AT5:AT20" si="8">H5/J5</f>
+        <v>0.8839228157634621</v>
+      </c>
+      <c r="AU5" s="21">
+        <f t="shared" ref="AU5:AU20" si="9">I5/J5</f>
+        <v>0.11607718423653789</v>
       </c>
     </row>
     <row r="6" spans="1:49">
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="12">
         <v>13170</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="12">
         <v>2974</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="13">
         <f t="shared" si="0"/>
         <v>16144</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="9">
         <v>21311</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="9">
         <v>2524</v>
       </c>
-      <c r="N6">
+      <c r="J6" s="9">
+        <f t="shared" si="1"/>
+        <v>23835</v>
+      </c>
+      <c r="N6" s="15">
         <v>3856</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="15">
         <v>15140</v>
       </c>
-      <c r="V6">
+      <c r="R6" s="16">
+        <f>2100.45+2235.45</f>
+        <v>4335.8999999999996</v>
+      </c>
+      <c r="S6" s="16">
+        <f>8172.45+8542.45</f>
+        <v>16714.900000000001</v>
+      </c>
+      <c r="V6" s="14">
         <v>50783520</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="14">
         <v>45026360</v>
       </c>
-      <c r="X6">
-        <f t="shared" si="1"/>
+      <c r="X6" s="14">
+        <f t="shared" si="2"/>
         <v>95809880</v>
       </c>
-      <c r="AH6" s="4">
+      <c r="AB6" s="20">
+        <f t="shared" si="3"/>
+        <v>92402364.899999991</v>
+      </c>
+      <c r="AC6" s="20">
+        <f t="shared" si="4"/>
+        <v>42188407.600000001</v>
+      </c>
+      <c r="AD6" s="20">
+        <f t="shared" si="5"/>
+        <v>134590772.5</v>
+      </c>
+      <c r="AH6" s="18">
         <v>0.5300447093765277</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="19">
         <v>0.46995529062347224</v>
       </c>
-      <c r="AP6" s="4">
+      <c r="AL6" s="21">
+        <f t="shared" si="6"/>
+        <v>0.68654309046335249</v>
+      </c>
+      <c r="AM6" s="21">
+        <f t="shared" si="7"/>
+        <v>0.31345690953664745</v>
+      </c>
+      <c r="AP6" s="18">
         <v>0.81578295341922691</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AQ6" s="19">
         <v>0.18421704658077304</v>
+      </c>
+      <c r="AT6" s="21">
+        <f t="shared" si="8"/>
+        <v>0.89410530732116633</v>
+      </c>
+      <c r="AU6" s="21">
+        <f t="shared" si="9"/>
+        <v>0.10589469267883365</v>
       </c>
     </row>
     <row r="7" spans="1:49">
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="12">
         <v>13496</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="12">
         <v>3029</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="13">
         <f t="shared" si="0"/>
         <v>16525</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="9">
         <v>20801</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="9">
         <v>2405</v>
       </c>
-      <c r="N7">
+      <c r="J7" s="9">
+        <f t="shared" si="1"/>
+        <v>23206</v>
+      </c>
+      <c r="N7" s="15">
         <v>4072</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="15">
         <v>15920</v>
       </c>
-      <c r="V7">
+      <c r="R7" s="16">
+        <v>5857.9</v>
+      </c>
+      <c r="S7" s="16">
+        <v>20067.900000000001</v>
+      </c>
+      <c r="V7" s="14">
         <v>54955712</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="14">
         <v>48221680</v>
       </c>
-      <c r="X7">
-        <f t="shared" si="1"/>
+      <c r="X7" s="14">
+        <f t="shared" si="2"/>
         <v>103177392</v>
       </c>
-      <c r="AH7" s="4">
+      <c r="AB7" s="20">
+        <f t="shared" si="3"/>
+        <v>121850177.89999999</v>
+      </c>
+      <c r="AC7" s="20">
+        <f t="shared" si="4"/>
+        <v>48263299.5</v>
+      </c>
+      <c r="AD7" s="20">
+        <f t="shared" si="5"/>
+        <v>170113477.39999998</v>
+      </c>
+      <c r="AH7" s="18">
         <v>0.53263327299453356</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI7" s="19">
         <v>0.46736672700546644</v>
       </c>
-      <c r="AP7" s="4">
+      <c r="AL7" s="21">
+        <f t="shared" si="6"/>
+        <v>0.71628762025412573</v>
+      </c>
+      <c r="AM7" s="21">
+        <f t="shared" si="7"/>
+        <v>0.28371237974587432</v>
+      </c>
+      <c r="AP7" s="18">
         <v>0.81670196671709527</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AQ7" s="19">
         <v>0.1832980332829047</v>
+      </c>
+      <c r="AT7" s="21">
+        <f t="shared" si="8"/>
+        <v>0.8963630095664914</v>
+      </c>
+      <c r="AU7" s="21">
+        <f t="shared" si="9"/>
+        <v>0.10363699043350857</v>
       </c>
     </row>
     <row r="8" spans="1:49">
       <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="12">
         <v>13748</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="12">
         <v>3016</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="13">
         <f t="shared" si="0"/>
         <v>16764</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="9">
         <v>20597</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="9">
         <v>2283</v>
       </c>
-      <c r="N8">
+      <c r="J8" s="9">
+        <f t="shared" si="1"/>
+        <v>22880</v>
+      </c>
+      <c r="N8" s="15">
         <v>4451</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="15">
         <v>17549</v>
       </c>
-      <c r="V8">
+      <c r="R8" s="16">
+        <f>3364.95*2</f>
+        <v>6729.9</v>
+      </c>
+      <c r="S8" s="16">
+        <f>11842.95*2</f>
+        <v>23685.9</v>
+      </c>
+      <c r="V8" s="14">
         <v>61192348</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="14">
         <v>52927784</v>
       </c>
-      <c r="X8">
-        <f t="shared" si="1"/>
+      <c r="X8" s="14">
+        <f t="shared" si="2"/>
         <v>114120132</v>
       </c>
-      <c r="AH8" s="4">
+      <c r="AB8" s="20">
+        <f t="shared" si="3"/>
+        <v>138615750.29999998</v>
+      </c>
+      <c r="AC8" s="20">
+        <f t="shared" si="4"/>
+        <v>54074909.700000003</v>
+      </c>
+      <c r="AD8" s="20">
+        <f t="shared" si="5"/>
+        <v>192690660</v>
+      </c>
+      <c r="AH8" s="18">
         <v>0.53620993007614115</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI8" s="19">
         <v>0.46379006992385885</v>
       </c>
-      <c r="AP8" s="4">
+      <c r="AL8" s="21">
+        <f t="shared" si="6"/>
+        <v>0.71936932646346208</v>
+      </c>
+      <c r="AM8" s="21">
+        <f t="shared" si="7"/>
+        <v>0.28063067353653781</v>
+      </c>
+      <c r="AP8" s="18">
         <v>0.82009067048437123</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AQ8" s="19">
         <v>0.17990932951562874</v>
+      </c>
+      <c r="AT8" s="21">
+        <f t="shared" si="8"/>
+        <v>0.90021853146853148</v>
+      </c>
+      <c r="AU8" s="21">
+        <f t="shared" si="9"/>
+        <v>9.9781468531468534E-2</v>
       </c>
     </row>
     <row r="9" spans="1:49">
       <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="12">
         <v>14131</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="12">
         <v>2993</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="13">
         <f t="shared" si="0"/>
         <v>17124</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="9">
         <v>21261</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="9">
         <v>2221</v>
       </c>
-      <c r="N9">
+      <c r="J9" s="9">
+        <f t="shared" si="1"/>
+        <v>23482</v>
+      </c>
+      <c r="N9" s="15">
         <v>4613</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="15">
         <v>18411</v>
       </c>
-      <c r="V9">
+      <c r="R9" s="16">
+        <f>3716.95*2</f>
+        <v>7433.9</v>
+      </c>
+      <c r="S9" s="16">
+        <f>12626.95*2</f>
+        <v>25253.9</v>
+      </c>
+      <c r="V9" s="14">
         <v>65186303</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="14">
         <v>55104123</v>
       </c>
-      <c r="X9">
-        <f t="shared" si="1"/>
+      <c r="X9" s="14">
+        <f t="shared" si="2"/>
         <v>120290426</v>
       </c>
-      <c r="AH9" s="4">
+      <c r="AB9" s="20">
+        <f t="shared" si="3"/>
+        <v>158052147.90000001</v>
+      </c>
+      <c r="AC9" s="20">
+        <f t="shared" si="4"/>
+        <v>56088911.900000006</v>
+      </c>
+      <c r="AD9" s="20">
+        <f t="shared" si="5"/>
+        <v>214141059.80000001</v>
+      </c>
+      <c r="AH9" s="18">
         <v>0.54190765772165439</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9" s="19">
         <v>0.45809234227834555</v>
       </c>
-      <c r="AP9" s="4">
+      <c r="AL9" s="21">
+        <f t="shared" si="6"/>
+        <v>0.73807493083117726</v>
+      </c>
+      <c r="AM9" s="21">
+        <f t="shared" si="7"/>
+        <v>0.26192506916882274</v>
+      </c>
+      <c r="AP9" s="18">
         <v>0.8252160710114459</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AQ9" s="19">
         <v>0.17478392898855408</v>
+      </c>
+      <c r="AT9" s="21">
+        <f t="shared" si="8"/>
+        <v>0.90541691508389399</v>
+      </c>
+      <c r="AU9" s="21">
+        <f t="shared" si="9"/>
+        <v>9.4583084916105953E-2</v>
       </c>
     </row>
     <row r="10" spans="1:49">
       <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="12">
         <v>14513</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="12">
         <v>3115</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="13">
         <f t="shared" si="0"/>
         <v>17628</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="9">
         <v>21763</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="9">
         <v>2100</v>
       </c>
-      <c r="N10">
+      <c r="J10" s="9">
+        <f t="shared" si="1"/>
+        <v>23863</v>
+      </c>
+      <c r="N10" s="15">
         <v>5033</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="15">
         <v>19681</v>
       </c>
-      <c r="V10">
+      <c r="R10" s="16">
+        <f>3899.75*2</f>
+        <v>7799.5</v>
+      </c>
+      <c r="S10" s="16">
+        <f>13241.75*2</f>
+        <v>26483.5</v>
+      </c>
+      <c r="V10" s="14">
         <v>73043929</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="14">
         <v>61306315</v>
       </c>
-      <c r="X10">
-        <f t="shared" si="1"/>
+      <c r="X10" s="14">
+        <f t="shared" si="2"/>
         <v>134350244</v>
       </c>
-      <c r="AH10" s="4">
+      <c r="AB10" s="20">
+        <f t="shared" si="3"/>
+        <v>169740518.5</v>
+      </c>
+      <c r="AC10" s="20">
+        <f t="shared" si="4"/>
+        <v>55615350</v>
+      </c>
+      <c r="AD10" s="20">
+        <f t="shared" si="5"/>
+        <v>225355868.5</v>
+      </c>
+      <c r="AH10" s="18">
         <v>0.54368289052009455</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AI10" s="19">
         <v>0.45631710947990539</v>
       </c>
-      <c r="AP10" s="4">
+      <c r="AL10" s="21">
+        <f t="shared" si="6"/>
+        <v>0.75321099747619835</v>
+      </c>
+      <c r="AM10" s="21">
+        <f t="shared" si="7"/>
+        <v>0.24678900252380159</v>
+      </c>
+      <c r="AP10" s="18">
         <v>0.82329248922169274</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AQ10" s="19">
         <v>0.17670751077830724</v>
+      </c>
+      <c r="AT10" s="21">
+        <f t="shared" si="8"/>
+        <v>0.91199765327075388</v>
+      </c>
+      <c r="AU10" s="21">
+        <f t="shared" si="9"/>
+        <v>8.8002346729246117E-2</v>
       </c>
     </row>
     <row r="11" spans="1:49">
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="12">
         <v>14766</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="12">
         <v>3129</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="13">
         <f t="shared" si="0"/>
         <v>17895</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="9">
         <v>22485</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="9">
         <v>2151</v>
       </c>
-      <c r="N11">
+      <c r="J11" s="9">
+        <f t="shared" si="1"/>
+        <v>24636</v>
+      </c>
+      <c r="N11" s="15">
         <v>5340</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="15">
         <v>20988</v>
       </c>
-      <c r="V11">
+      <c r="R11" s="16">
+        <f>4192.25+4190.75</f>
+        <v>8383</v>
+      </c>
+      <c r="S11" s="16">
+        <f>14002.25+14000.75</f>
+        <v>28003</v>
+      </c>
+      <c r="V11" s="14">
         <v>78850440</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="14">
         <v>65671452</v>
       </c>
-      <c r="X11">
-        <f t="shared" si="1"/>
+      <c r="X11" s="14">
+        <f t="shared" si="2"/>
         <v>144521892</v>
       </c>
-      <c r="AH11" s="4">
+      <c r="AB11" s="20">
+        <f t="shared" si="3"/>
+        <v>188491755</v>
+      </c>
+      <c r="AC11" s="20">
+        <f t="shared" si="4"/>
+        <v>60234453</v>
+      </c>
+      <c r="AD11" s="20">
+        <f t="shared" si="5"/>
+        <v>248726208</v>
+      </c>
+      <c r="AH11" s="18">
         <v>0.54559512686147227</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI11" s="19">
         <v>0.45440487313852768</v>
       </c>
-      <c r="AP11" s="4">
+      <c r="AL11" s="21">
+        <f t="shared" si="6"/>
+        <v>0.75782828241405109</v>
+      </c>
+      <c r="AM11" s="21">
+        <f t="shared" si="7"/>
+        <v>0.24217171758594896</v>
+      </c>
+      <c r="AP11" s="18">
         <v>0.82514668901927912</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AQ11" s="19">
         <v>0.17485331098072088</v>
+      </c>
+      <c r="AT11" s="21">
+        <f t="shared" si="8"/>
+        <v>0.91268874817340473</v>
+      </c>
+      <c r="AU11" s="21">
+        <f t="shared" si="9"/>
+        <v>8.7311251826595229E-2</v>
       </c>
     </row>
     <row r="12" spans="1:49">
       <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="12">
         <v>14838</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="12">
         <v>3143</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="13">
         <f t="shared" si="0"/>
         <v>17981</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="9">
         <v>22827</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="9">
         <v>2324</v>
       </c>
-      <c r="N12">
+      <c r="J12" s="9">
+        <f t="shared" si="1"/>
+        <v>25151</v>
+      </c>
+      <c r="N12" s="15">
         <v>5397</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="15">
         <v>22295</v>
       </c>
-      <c r="V12">
+      <c r="R12" s="16">
+        <f>4465.75*2</f>
+        <v>8931.5</v>
+      </c>
+      <c r="S12" s="16">
+        <f>14769.75*2</f>
+        <v>29539.5</v>
+      </c>
+      <c r="V12" s="14">
         <v>80080686</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="14">
         <v>70073185</v>
       </c>
-      <c r="X12">
-        <f t="shared" si="1"/>
+      <c r="X12" s="14">
+        <f t="shared" si="2"/>
         <v>150153871</v>
       </c>
-      <c r="AH12" s="4">
+      <c r="AB12" s="20">
+        <f t="shared" si="3"/>
+        <v>203879350.5</v>
+      </c>
+      <c r="AC12" s="20">
+        <f t="shared" si="4"/>
+        <v>68649798</v>
+      </c>
+      <c r="AD12" s="20">
+        <f t="shared" si="5"/>
+        <v>272529148.5</v>
+      </c>
+      <c r="AH12" s="18">
         <v>0.53332415252884158</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AI12" s="19">
         <v>0.46667584747115842</v>
       </c>
-      <c r="AP12" s="4">
+      <c r="AL12" s="21">
+        <f t="shared" si="6"/>
+        <v>0.74810108064459024</v>
+      </c>
+      <c r="AM12" s="21">
+        <f t="shared" si="7"/>
+        <v>0.25189891935540981</v>
+      </c>
+      <c r="AP12" s="18">
         <v>0.82520438240364835</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AQ12" s="19">
         <v>0.1747956175963517</v>
+      </c>
+      <c r="AT12" s="21">
+        <f t="shared" si="8"/>
+        <v>0.90759810743111602</v>
+      </c>
+      <c r="AU12" s="21">
+        <f t="shared" si="9"/>
+        <v>9.2401892568883939E-2</v>
       </c>
     </row>
     <row r="13" spans="1:49">
       <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="12">
         <v>15111</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="12">
         <v>3468</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="13">
         <f t="shared" si="0"/>
         <v>18579</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="9">
         <v>22940</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="9">
         <v>2590</v>
       </c>
-      <c r="N13">
+      <c r="J13" s="9">
+        <f t="shared" si="1"/>
+        <v>25530</v>
+      </c>
+      <c r="N13" s="15">
         <v>5625</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="15">
         <v>23513</v>
       </c>
-      <c r="V13">
+      <c r="R13" s="9">
+        <f>4874.25+5459.25</f>
+        <v>10333.5</v>
+      </c>
+      <c r="S13" s="9">
+        <f>16208.75+16841.75</f>
+        <v>33050.5</v>
+      </c>
+      <c r="V13" s="14">
         <v>84999375</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="14">
         <v>81543084</v>
       </c>
-      <c r="X13">
-        <f t="shared" si="1"/>
+      <c r="X13" s="14">
+        <f t="shared" si="2"/>
         <v>166542459</v>
       </c>
-      <c r="AH13" s="4">
+      <c r="AB13" s="20">
+        <f t="shared" si="3"/>
+        <v>237050490</v>
+      </c>
+      <c r="AC13" s="20">
+        <f t="shared" si="4"/>
+        <v>85600795</v>
+      </c>
+      <c r="AD13" s="20">
+        <f t="shared" si="5"/>
+        <v>322651285</v>
+      </c>
+      <c r="AH13" s="18">
         <v>0.51037660612420765</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AI13" s="19">
         <v>0.48962339387579235</v>
       </c>
-      <c r="AP13" s="4">
+      <c r="AL13" s="21">
+        <f t="shared" si="6"/>
+        <v>0.73469563277889938</v>
+      </c>
+      <c r="AM13" s="21">
+        <f t="shared" si="7"/>
+        <v>0.26530436722110062</v>
+      </c>
+      <c r="AP13" s="18">
         <v>0.81333763927014369</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AQ13" s="19">
         <v>0.18666236072985629</v>
+      </c>
+      <c r="AT13" s="21">
+        <f t="shared" si="8"/>
+        <v>0.89855072463768115</v>
+      </c>
+      <c r="AU13" s="21">
+        <f t="shared" si="9"/>
+        <v>0.10144927536231885</v>
       </c>
     </row>
     <row r="14" spans="1:49">
       <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="12">
         <v>14893</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="12">
         <v>3537</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="13">
         <f t="shared" si="0"/>
         <v>18430</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="9">
         <v>22305</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="9">
         <v>3235</v>
       </c>
-      <c r="N14">
+      <c r="J14" s="9">
+        <f t="shared" si="1"/>
+        <v>25540</v>
+      </c>
+      <c r="N14" s="15">
         <v>6665</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="15">
         <v>25280</v>
       </c>
-      <c r="V14">
+      <c r="R14" s="9">
+        <f>6230.75*2</f>
+        <v>12461.5</v>
+      </c>
+      <c r="S14" s="9">
+        <f>17670.25*2</f>
+        <v>35340.5</v>
+      </c>
+      <c r="V14" s="14">
         <v>99261845</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="14">
         <v>89415360</v>
       </c>
-      <c r="X14">
-        <f t="shared" si="1"/>
+      <c r="X14" s="14">
+        <f t="shared" si="2"/>
         <v>188677205</v>
       </c>
-      <c r="AH14" s="4">
+      <c r="AB14" s="20">
+        <f t="shared" si="3"/>
+        <v>277953757.5</v>
+      </c>
+      <c r="AC14" s="20">
+        <f t="shared" si="4"/>
+        <v>114326517.5</v>
+      </c>
+      <c r="AD14" s="20">
+        <f t="shared" si="5"/>
+        <v>392280275</v>
+      </c>
+      <c r="AH14" s="18">
         <v>0.52609346741170993</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI14" s="19">
         <v>0.47390653258829013</v>
       </c>
-      <c r="AP14" s="4">
+      <c r="AL14" s="21">
+        <f t="shared" si="6"/>
+        <v>0.70855909719141497</v>
+      </c>
+      <c r="AM14" s="21">
+        <f t="shared" si="7"/>
+        <v>0.29144090280858503</v>
+      </c>
+      <c r="AP14" s="18">
         <v>0.80808464460119367</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AQ14" s="19">
         <v>0.1919153553988063</v>
+      </c>
+      <c r="AT14" s="21">
+        <f t="shared" si="8"/>
+        <v>0.87333594361785438</v>
+      </c>
+      <c r="AU14" s="21">
+        <f t="shared" si="9"/>
+        <v>0.12666405638214565</v>
       </c>
     </row>
     <row r="15" spans="1:49">
       <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="12">
         <v>14901</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="12">
         <v>3602</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="13">
         <f t="shared" si="0"/>
         <v>18503</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="9">
         <v>21517</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="9">
         <v>4368</v>
       </c>
-      <c r="N15">
+      <c r="J15" s="9">
+        <f t="shared" si="1"/>
+        <v>25885</v>
+      </c>
+      <c r="N15" s="15">
         <v>7009</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="15">
         <v>26834</v>
       </c>
-      <c r="V15">
+      <c r="R15" s="17">
+        <f>7230.25*2</f>
+        <v>14460.5</v>
+      </c>
+      <c r="S15" s="9">
+        <f>18669.25*2</f>
+        <v>37338.5</v>
+      </c>
+      <c r="V15" s="14">
         <v>104441109</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="14">
         <v>96656068</v>
       </c>
-      <c r="X15">
-        <f t="shared" si="1"/>
+      <c r="X15" s="14">
+        <f t="shared" si="2"/>
         <v>201097177</v>
       </c>
-      <c r="AH15" s="4">
+      <c r="AB15" s="20">
+        <f t="shared" si="3"/>
+        <v>311146578.5</v>
+      </c>
+      <c r="AC15" s="20">
+        <f t="shared" si="4"/>
+        <v>163094568</v>
+      </c>
+      <c r="AD15" s="20">
+        <f t="shared" si="5"/>
+        <v>474241146.5</v>
+      </c>
+      <c r="AH15" s="18">
         <v>0.51935641543093369</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AI15" s="19">
         <v>0.48064358456906631</v>
       </c>
-      <c r="AP15" s="4">
+      <c r="AL15" s="21">
+        <f t="shared" si="6"/>
+        <v>0.65609359456961414</v>
+      </c>
+      <c r="AM15" s="21">
+        <f t="shared" si="7"/>
+        <v>0.34390640543038581</v>
+      </c>
+      <c r="AP15" s="18">
         <v>0.8053288655893639</v>
       </c>
-      <c r="AQ15" s="3">
+      <c r="AQ15" s="19">
         <v>0.1946711344106361</v>
+      </c>
+      <c r="AT15" s="21">
+        <f t="shared" si="8"/>
+        <v>0.83125362178868067</v>
+      </c>
+      <c r="AU15" s="21">
+        <f t="shared" si="9"/>
+        <v>0.1687463782113193</v>
       </c>
     </row>
     <row r="16" spans="1:49">
       <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="12">
         <v>14838</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="12">
         <v>3532</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="13">
         <f t="shared" si="0"/>
         <v>18370</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="9">
         <v>20827</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="9">
         <v>4947</v>
       </c>
-      <c r="N16">
+      <c r="J16" s="9">
+        <f t="shared" si="1"/>
+        <v>25774</v>
+      </c>
+      <c r="N16" s="15">
         <v>7690</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="15">
         <v>28442</v>
       </c>
-      <c r="V16">
+      <c r="R16" s="9">
+        <f>7492.75*2</f>
+        <v>14985.5</v>
+      </c>
+      <c r="S16" s="9">
+        <f>18931.75*2</f>
+        <v>37863.5</v>
+      </c>
+      <c r="V16" s="14">
         <v>114104220</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="14">
         <v>100457144</v>
       </c>
-      <c r="X16">
-        <f t="shared" si="1"/>
+      <c r="X16" s="14">
+        <f t="shared" si="2"/>
         <v>214561364</v>
       </c>
-      <c r="AH16" s="4">
+      <c r="AB16" s="20">
+        <f t="shared" si="3"/>
+        <v>312103008.5</v>
+      </c>
+      <c r="AC16" s="20">
+        <f t="shared" si="4"/>
+        <v>187310734.5</v>
+      </c>
+      <c r="AD16" s="20">
+        <f t="shared" si="5"/>
+        <v>499413743</v>
+      </c>
+      <c r="AH16" s="18">
         <v>0.53180226799825903</v>
       </c>
-      <c r="AI16" s="3">
+      <c r="AI16" s="19">
         <v>0.46819773200174103</v>
       </c>
-      <c r="AP16" s="4">
+      <c r="AL16" s="21">
+        <f t="shared" si="6"/>
+        <v>0.62493876645280866</v>
+      </c>
+      <c r="AM16" s="21">
+        <f t="shared" si="7"/>
+        <v>0.37506123354719134</v>
+      </c>
+      <c r="AP16" s="18">
         <v>0.80772999455634187</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AQ16" s="19">
         <v>0.19227000544365813</v>
       </c>
-    </row>
-    <row r="17" spans="1:43">
+      <c r="AT16" s="21">
+        <f t="shared" si="8"/>
+        <v>0.80806238845348022</v>
+      </c>
+      <c r="AU16" s="21">
+        <f t="shared" si="9"/>
+        <v>0.19193761154651975</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47">
       <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="12">
         <v>14808</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="12">
         <v>3542</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="13">
         <f t="shared" si="0"/>
         <v>18350</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="9">
         <v>19885</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="9">
         <v>6066</v>
       </c>
-      <c r="N17">
+      <c r="J17" s="9">
+        <f t="shared" si="1"/>
+        <v>25951</v>
+      </c>
+      <c r="N17" s="15">
         <v>8340</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="15">
         <v>30122</v>
       </c>
-      <c r="V17">
+      <c r="R17" s="9">
+        <f>7610.75*2</f>
+        <v>15221.5</v>
+      </c>
+      <c r="S17" s="9">
+        <f>19049.75*2</f>
+        <v>38099.5</v>
+      </c>
+      <c r="V17" s="14">
         <v>123498720</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="14">
         <v>106692124</v>
       </c>
-      <c r="X17">
-        <f t="shared" si="1"/>
+      <c r="X17" s="14">
+        <f t="shared" si="2"/>
         <v>230190844</v>
       </c>
-      <c r="AH17" s="4">
+      <c r="AB17" s="20">
+        <f t="shared" si="3"/>
+        <v>302679527.5</v>
+      </c>
+      <c r="AC17" s="20">
+        <f t="shared" si="4"/>
+        <v>231111567</v>
+      </c>
+      <c r="AD17" s="20">
+        <f t="shared" si="5"/>
+        <v>533791094.5</v>
+      </c>
+      <c r="AH17" s="18">
         <v>0.53650578734573817</v>
       </c>
-      <c r="AI17" s="3">
+      <c r="AI17" s="19">
         <v>0.46349421265426177</v>
       </c>
-      <c r="AP17" s="4">
+      <c r="AL17" s="21">
+        <f t="shared" si="6"/>
+        <v>0.56703742460057094</v>
+      </c>
+      <c r="AM17" s="21">
+        <f t="shared" si="7"/>
+        <v>0.43296257539942906</v>
+      </c>
+      <c r="AP17" s="18">
         <v>0.80697547683923709</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AQ17" s="19">
         <v>0.19302452316076293</v>
       </c>
-    </row>
-    <row r="18" spans="1:43">
+      <c r="AT17" s="21">
+        <f t="shared" si="8"/>
+        <v>0.76625178220492463</v>
+      </c>
+      <c r="AU17" s="21">
+        <f t="shared" si="9"/>
+        <v>0.23374821779507535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47">
       <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="12">
         <v>14871</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="12">
         <v>3544</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="13">
         <f t="shared" si="0"/>
         <v>18415</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="9">
         <v>20572</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="9">
         <v>6554</v>
       </c>
-      <c r="N18">
+      <c r="J18" s="9">
+        <f t="shared" si="1"/>
+        <v>27126</v>
+      </c>
+      <c r="N18" s="15">
         <v>8346</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="15">
         <v>33687</v>
       </c>
-      <c r="V18">
+      <c r="R18" s="9">
+        <f>7755.75*2</f>
+        <v>15511.5</v>
+      </c>
+      <c r="S18" s="9">
+        <f>19194.75*2</f>
+        <v>38389.5</v>
+      </c>
+      <c r="V18" s="14">
         <v>124113366</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="14">
         <v>119386728</v>
       </c>
-      <c r="X18">
-        <f t="shared" si="1"/>
+      <c r="X18" s="14">
+        <f t="shared" si="2"/>
         <v>243500094</v>
       </c>
-      <c r="AH18" s="4">
+      <c r="AB18" s="20">
+        <f t="shared" si="3"/>
+        <v>319102578</v>
+      </c>
+      <c r="AC18" s="20">
+        <f t="shared" si="4"/>
+        <v>251604783</v>
+      </c>
+      <c r="AD18" s="20">
+        <f t="shared" si="5"/>
+        <v>570707361</v>
+      </c>
+      <c r="AH18" s="18">
         <v>0.50970561842986395</v>
       </c>
-      <c r="AI18" s="3">
+      <c r="AI18" s="19">
         <v>0.49029438157013605</v>
       </c>
-      <c r="AP18" s="4">
+      <c r="AL18" s="21">
+        <f t="shared" si="6"/>
+        <v>0.55913520624802315</v>
+      </c>
+      <c r="AM18" s="21">
+        <f t="shared" si="7"/>
+        <v>0.44086479375197685</v>
+      </c>
+      <c r="AP18" s="18">
         <v>0.80754819440673364</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AQ18" s="19">
         <v>0.19245180559326636</v>
       </c>
-    </row>
-    <row r="19" spans="1:43">
+      <c r="AT18" s="21">
+        <f t="shared" si="8"/>
+        <v>0.75838678758386791</v>
+      </c>
+      <c r="AU18" s="21">
+        <f t="shared" si="9"/>
+        <v>0.24161321241613212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47">
       <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="12">
         <v>15052</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="12">
         <v>3471</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="13">
         <f t="shared" si="0"/>
         <v>18523</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="9">
         <v>20780</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="9">
         <v>6716</v>
       </c>
-      <c r="N19">
+      <c r="J19" s="9">
+        <f t="shared" si="1"/>
+        <v>27496</v>
+      </c>
+      <c r="N19" s="15">
         <v>8591</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="15">
         <v>33673</v>
       </c>
-      <c r="V19">
+      <c r="R19" s="9">
+        <f>8185.25*2</f>
+        <v>16370.5</v>
+      </c>
+      <c r="S19" s="9">
+        <f>20539.25*2</f>
+        <v>41078.5</v>
+      </c>
+      <c r="V19" s="14">
         <v>129311732</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="14">
         <v>116878983</v>
       </c>
-      <c r="X19">
-        <f t="shared" si="1"/>
+      <c r="X19" s="14">
+        <f t="shared" si="2"/>
         <v>246190715</v>
       </c>
-      <c r="AH19" s="4">
+      <c r="AB19" s="20">
+        <f t="shared" si="3"/>
+        <v>340178990</v>
+      </c>
+      <c r="AC19" s="20">
+        <f t="shared" si="4"/>
+        <v>275883206</v>
+      </c>
+      <c r="AD19" s="20">
+        <f t="shared" si="5"/>
+        <v>616062196</v>
+      </c>
+      <c r="AH19" s="18">
         <v>0.52525023943327831</v>
       </c>
-      <c r="AI19" s="3">
+      <c r="AI19" s="19">
         <v>0.47474976056672163</v>
       </c>
-      <c r="AP19" s="4">
+      <c r="AL19" s="21">
+        <f t="shared" si="6"/>
+        <v>0.55218286758825885</v>
+      </c>
+      <c r="AM19" s="21">
+        <f t="shared" si="7"/>
+        <v>0.44781713241174109</v>
+      </c>
+      <c r="AP19" s="18">
         <v>0.812611348053771</v>
       </c>
-      <c r="AQ19" s="3">
+      <c r="AQ19" s="19">
         <v>0.187388651946229</v>
       </c>
-    </row>
-    <row r="20" spans="1:43">
+      <c r="AT19" s="21">
+        <f t="shared" si="8"/>
+        <v>0.75574629036950824</v>
+      </c>
+      <c r="AU19" s="21">
+        <f t="shared" si="9"/>
+        <v>0.2442537096304917</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47">
       <c r="A20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="12">
         <v>15487</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="12">
         <v>3375</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="13">
         <f t="shared" si="0"/>
         <v>18862</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="9">
         <v>22161</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="9">
         <v>7147</v>
       </c>
-      <c r="N20">
+      <c r="J20" s="9">
+        <f t="shared" si="1"/>
+        <v>29308</v>
+      </c>
+      <c r="N20" s="15">
         <v>8835</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="15">
         <v>33916</v>
       </c>
-      <c r="V20">
+      <c r="R20" s="9">
+        <f>8243.25*2</f>
+        <v>16486.5</v>
+      </c>
+      <c r="S20" s="9">
+        <f>21584.25*2</f>
+        <v>43168.5</v>
+      </c>
+      <c r="V20" s="14">
         <v>136827645</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="14">
         <v>114466500</v>
       </c>
-      <c r="X20">
-        <f t="shared" si="1"/>
+      <c r="X20" s="14">
+        <f t="shared" si="2"/>
         <v>251294145</v>
       </c>
-      <c r="AH20" s="4">
+      <c r="AB20" s="20">
+        <f t="shared" si="3"/>
+        <v>365357326.5</v>
+      </c>
+      <c r="AC20" s="20">
+        <f t="shared" si="4"/>
+        <v>308525269.5</v>
+      </c>
+      <c r="AD20" s="20">
+        <f t="shared" si="5"/>
+        <v>673882596</v>
+      </c>
+      <c r="AH20" s="18">
         <v>0.54449197373858427</v>
       </c>
-      <c r="AI20" s="3">
+      <c r="AI20" s="19">
         <v>0.45550802626141568</v>
       </c>
-      <c r="AP20" s="4">
+      <c r="AL20" s="21">
+        <f t="shared" si="6"/>
+        <v>0.54216762484840908</v>
+      </c>
+      <c r="AM20" s="21">
+        <f t="shared" si="7"/>
+        <v>0.45783237515159092</v>
+      </c>
+      <c r="AP20" s="18">
         <v>0.82106881560810097</v>
       </c>
-      <c r="AQ20" s="3">
+      <c r="AQ20" s="19">
         <v>0.17893118439189906</v>
+      </c>
+      <c r="AT20" s="21">
+        <f t="shared" si="8"/>
+        <v>0.7561416678040126</v>
+      </c>
+      <c r="AU20" s="21">
+        <f t="shared" si="9"/>
+        <v>0.24385833219598743</v>
       </c>
     </row>
   </sheetData>
@@ -4839,26 +6223,26 @@
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="AP1:AW1"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AT2:AU2"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AH1:AO1"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="AH1:AO1"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="AP1:AW1"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/data/UNCCH-tuition.xlsx
+++ b/data/UNCCH-tuition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="25360" windowHeight="14860" tabRatio="500"/>
+    <workbookView xWindow="180" yWindow="0" windowWidth="25360" windowHeight="14860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
   <si>
     <t>1947-1948</t>
   </si>
@@ -311,6 +311,12 @@
   </si>
   <si>
     <t>Enrollment %</t>
+  </si>
+  <si>
+    <t>University of Virginia</t>
+  </si>
+  <si>
+    <t>All Students</t>
   </si>
 </sst>
 </file>
@@ -321,7 +327,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -359,8 +365,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4C4C4C"/>
+      <name val="Lucida Grande"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +418,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -407,7 +434,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -457,8 +484,21 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -468,23 +508,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -501,11 +526,34 @@
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="59"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="62">
     <cellStyle name="Comma" xfId="46" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -530,6 +578,13 @@
     <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -553,6 +608,12 @@
     <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1503,11 +1564,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119218328"/>
-        <c:axId val="2119215336"/>
+        <c:axId val="2127999784"/>
+        <c:axId val="2127996792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119218328"/>
+        <c:axId val="2127999784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,7 +1577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119215336"/>
+        <c:crossAx val="2127996792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1524,7 +1585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119215336"/>
+        <c:axId val="2127996792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,14 +1596,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119218328"/>
+        <c:crossAx val="2127999784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1916,7 +1976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="T3" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="T3" workbookViewId="0">
       <selection activeCell="A57" sqref="A3:XFD57"/>
     </sheetView>
   </sheetViews>
@@ -4378,213 +4438,213 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW20"/>
+  <dimension ref="A1:AW34"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AL27" sqref="AL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" customWidth="1"/>
     <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="0" hidden="1" customWidth="1"/>
+    <col min="16" max="17" width="10.83203125" customWidth="1"/>
     <col min="20" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.1640625" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
-    <col min="25" max="27" width="0" hidden="1" customWidth="1"/>
+    <col min="25" max="27" width="10.83203125" customWidth="1"/>
     <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.1640625" customWidth="1"/>
     <col min="30" max="30" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="31" max="33" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="37" width="0" hidden="1" customWidth="1"/>
+    <col min="36" max="37" width="10.83203125" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="44" max="45" width="0" hidden="1" customWidth="1"/>
+    <col min="44" max="45" width="10.83203125" customWidth="1"/>
     <col min="48" max="49" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="6" t="s">
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="24" t="s">
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="24"/>
-      <c r="AE1" s="24"/>
-      <c r="AF1" s="24"/>
-      <c r="AG1" s="24"/>
-      <c r="AH1" s="6" t="s">
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="24" t="s">
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="24"/>
-      <c r="AR1" s="24"/>
-      <c r="AS1" s="24"/>
-      <c r="AT1" s="24"/>
-      <c r="AU1" s="24"/>
-      <c r="AV1" s="24"/>
-      <c r="AW1" s="24"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
     </row>
     <row r="2" spans="1:49">
-      <c r="A2" s="5"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="10" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="11" t="s">
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="5" t="s">
+      <c r="O2" s="21"/>
+      <c r="P2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="10" t="s">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="5" t="s">
+      <c r="S2" s="23"/>
+      <c r="T2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="11" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="5" t="s">
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="10" t="s">
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="5" t="s">
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="11" t="s">
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="5" t="s">
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AK2" s="5"/>
-      <c r="AL2" s="10" t="s">
+      <c r="AK2" s="22"/>
+      <c r="AL2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="5" t="s">
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="11" t="s">
+      <c r="AO2" s="22"/>
+      <c r="AP2" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="5" t="s">
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="10" t="s">
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="5" t="s">
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="AW2" s="5"/>
+      <c r="AW2" s="22"/>
     </row>
     <row r="3" spans="1:49">
-      <c r="A3" s="5"/>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="18" t="s">
         <v>95</v>
       </c>
       <c r="K3" t="s">
@@ -4596,106 +4656,106 @@
       <c r="M3" t="s">
         <v>95</v>
       </c>
-      <c r="N3" s="22" t="s">
+      <c r="N3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="O3" s="22" t="s">
+      <c r="O3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="22" t="s">
+      <c r="P3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="Q3" s="22" t="s">
+      <c r="Q3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="R3" s="22" t="s">
+      <c r="R3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="S3" s="22" t="s">
+      <c r="S3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="W3" s="23" t="s">
+      <c r="W3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="X3" s="23" t="s">
+      <c r="X3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="Y3" s="23" t="s">
+      <c r="Y3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="Z3" s="23" t="s">
+      <c r="Z3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="23" t="s">
+      <c r="AA3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AB3" s="23" t="s">
+      <c r="AB3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="23" t="s">
+      <c r="AC3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AD3" s="23" t="s">
+      <c r="AD3" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AE3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AF3" s="8" t="s">
+      <c r="AF3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AG3" s="8" t="s">
+      <c r="AG3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="AH3" s="22" t="s">
+      <c r="AH3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AI3" s="22" t="s">
+      <c r="AI3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="AJ3" s="22" t="s">
+      <c r="AJ3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AK3" s="22" t="s">
+      <c r="AK3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="AL3" s="22" t="s">
+      <c r="AL3" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AM3" s="22" t="s">
+      <c r="AM3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="AN3" s="8" t="s">
+      <c r="AN3" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AO3" s="8" t="s">
+      <c r="AO3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AP3" s="23" t="s">
+      <c r="AP3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AQ3" s="23" t="s">
+      <c r="AQ3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AR3" s="23" t="s">
+      <c r="AR3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AS3" s="23" t="s">
+      <c r="AS3" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="AT3" s="23" t="s">
+      <c r="AT3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="AU3" s="23" t="s">
+      <c r="AU3" s="18" t="s">
         <v>72</v>
       </c>
       <c r="AV3" t="s">
@@ -4705,534 +4765,663 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:49">
+    <row r="4" spans="1:49" ht="17">
       <c r="A4" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="7">
         <v>12901</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="7">
         <v>2943</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <f>B4+C4</f>
         <v>15844</v>
       </c>
-      <c r="H4" s="9">
+      <c r="E4" s="30">
+        <v>9367</v>
+      </c>
+      <c r="F4" s="30">
+        <v>4345</v>
+      </c>
+      <c r="G4" s="30">
+        <v>13712</v>
+      </c>
+      <c r="H4" s="6">
         <v>20007</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>2671</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="6">
         <f>H4+I4</f>
         <v>22678</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="10">
         <v>2768</v>
       </c>
-      <c r="O4" s="15">
+      <c r="O4" s="10">
         <v>11934</v>
       </c>
-      <c r="R4" s="16">
+      <c r="P4" s="25"/>
+      <c r="R4" s="11">
         <v>4046.5</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="11">
         <f>7330.25*2</f>
         <v>14660.5</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="9">
         <v>35709968</v>
       </c>
-      <c r="W4" s="14">
+      <c r="W4" s="9">
         <v>35121762</v>
       </c>
-      <c r="X4" s="14">
+      <c r="X4" s="9">
         <f>V4+W4</f>
         <v>70831730</v>
       </c>
-      <c r="AB4" s="20">
+      <c r="AB4" s="15">
         <f>H4*R4</f>
         <v>80958325.5</v>
       </c>
-      <c r="AC4" s="20">
+      <c r="AC4" s="15">
         <f>I4*S4</f>
         <v>39158195.5</v>
       </c>
-      <c r="AD4" s="20">
+      <c r="AD4" s="15">
         <f>AB4+AC4</f>
         <v>120116521</v>
       </c>
-      <c r="AH4" s="18">
+      <c r="AH4" s="13">
         <v>0.50415213633776834</v>
       </c>
-      <c r="AI4" s="19">
+      <c r="AI4" s="14">
         <v>0.4958478636622316</v>
       </c>
-      <c r="AL4" s="21">
+      <c r="AL4" s="16">
         <f>AB4/AD4</f>
         <v>0.67399825457815254</v>
       </c>
-      <c r="AM4" s="21">
+      <c r="AM4" s="16">
         <f>AC4/AD4</f>
         <v>0.32600174542184751</v>
       </c>
-      <c r="AP4" s="18">
+      <c r="AP4" s="13">
         <v>0.81425145165362278</v>
       </c>
-      <c r="AQ4" s="19">
+      <c r="AQ4" s="14">
         <v>0.18574854834637719</v>
       </c>
-      <c r="AT4" s="21">
+      <c r="AR4" s="3">
+        <f>E4/G4</f>
+        <v>0.68312427071178528</v>
+      </c>
+      <c r="AS4" s="3">
+        <f>F4/G4</f>
+        <v>0.31687572928821472</v>
+      </c>
+      <c r="AT4" s="16">
         <f>H4/J4</f>
         <v>0.88222065437869301</v>
       </c>
-      <c r="AU4" s="21">
+      <c r="AU4" s="16">
         <f>I4/J4</f>
         <v>0.117779345621307</v>
       </c>
     </row>
-    <row r="5" spans="1:49">
+    <row r="5" spans="1:49" ht="16">
       <c r="A5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="7">
         <v>12987</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>2974</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <f t="shared" ref="D5:D20" si="0">B5+C5</f>
         <v>15961</v>
       </c>
-      <c r="H5" s="9">
+      <c r="E5" s="30">
+        <v>9493</v>
+      </c>
+      <c r="F5" s="30">
+        <v>4271</v>
+      </c>
+      <c r="G5" s="30">
+        <v>13764</v>
+      </c>
+      <c r="H5" s="6">
         <v>20568</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>2701</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="6">
         <f t="shared" ref="J5:J20" si="1">H5+I5</f>
         <v>23269</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="10">
         <v>3277</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="10">
         <v>13269</v>
       </c>
-      <c r="R5" s="16">
+      <c r="R5" s="11">
         <f>2061.25*2</f>
         <v>4122.5</v>
       </c>
-      <c r="S5" s="16">
+      <c r="S5" s="11">
         <f>7598.25*2</f>
         <v>15196.5</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="9">
         <v>42558399</v>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="9">
         <v>39462006</v>
       </c>
-      <c r="X5" s="14">
+      <c r="X5" s="9">
         <f t="shared" ref="X5:X20" si="2">V5+W5</f>
         <v>82020405</v>
       </c>
-      <c r="AB5" s="20">
+      <c r="AB5" s="15">
         <f t="shared" ref="AB5:AB20" si="3">H5*R5</f>
         <v>84791580</v>
       </c>
-      <c r="AC5" s="20">
+      <c r="AC5" s="15">
         <f t="shared" ref="AC5:AC20" si="4">I5*S5</f>
         <v>41045746.5</v>
       </c>
-      <c r="AD5" s="20">
+      <c r="AD5" s="15">
         <f t="shared" ref="AD5:AD20" si="5">AB5+AC5</f>
         <v>125837326.5</v>
       </c>
-      <c r="AH5" s="18">
+      <c r="AH5" s="13">
         <v>0.51887574805318259</v>
       </c>
-      <c r="AI5" s="19">
+      <c r="AI5" s="14">
         <v>0.48112425194681741</v>
       </c>
-      <c r="AL5" s="21">
+      <c r="AL5" s="16">
         <f t="shared" ref="AL5:AL20" si="6">AB5/AD5</f>
         <v>0.67381898804088147</v>
       </c>
-      <c r="AM5" s="21">
+      <c r="AM5" s="16">
         <f t="shared" ref="AM5:AM20" si="7">AC5/AD5</f>
         <v>0.32618101195911853</v>
       </c>
-      <c r="AP5" s="18">
+      <c r="AP5" s="13">
         <v>0.81367082263016099</v>
       </c>
-      <c r="AQ5" s="19">
+      <c r="AQ5" s="14">
         <v>0.18632917736983898</v>
       </c>
-      <c r="AT5" s="21">
-        <f t="shared" ref="AT5:AT20" si="8">H5/J5</f>
+      <c r="AR5" s="3">
+        <f t="shared" ref="AR5:AR20" si="8">E5/G5</f>
+        <v>0.6896977622784074</v>
+      </c>
+      <c r="AS5" s="3">
+        <f t="shared" ref="AS5:AS20" si="9">F5/G5</f>
+        <v>0.31030223772159254</v>
+      </c>
+      <c r="AT5" s="16">
+        <f t="shared" ref="AT5:AT20" si="10">H5/J5</f>
         <v>0.8839228157634621</v>
       </c>
-      <c r="AU5" s="21">
-        <f t="shared" ref="AU5:AU20" si="9">I5/J5</f>
+      <c r="AU5" s="16">
+        <f t="shared" ref="AU5:AU20" si="11">I5/J5</f>
         <v>0.11607718423653789</v>
       </c>
     </row>
-    <row r="6" spans="1:49">
+    <row r="6" spans="1:49" ht="16">
       <c r="A6" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="7">
         <v>13170</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>2974</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="8">
         <f t="shared" si="0"/>
         <v>16144</v>
       </c>
-      <c r="H6" s="9">
+      <c r="E6" s="30">
+        <v>9606</v>
+      </c>
+      <c r="F6" s="30">
+        <v>4199</v>
+      </c>
+      <c r="G6" s="30">
+        <v>13805</v>
+      </c>
+      <c r="H6" s="6">
         <v>21311</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>2524</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <f t="shared" si="1"/>
         <v>23835</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="10">
         <v>3856</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="10">
         <v>15140</v>
       </c>
-      <c r="R6" s="16">
+      <c r="R6" s="11">
         <f>2100.45+2235.45</f>
         <v>4335.8999999999996</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="11">
         <f>8172.45+8542.45</f>
         <v>16714.900000000001</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="9">
         <v>50783520</v>
       </c>
-      <c r="W6" s="14">
+      <c r="W6" s="9">
         <v>45026360</v>
       </c>
-      <c r="X6" s="14">
+      <c r="X6" s="9">
         <f t="shared" si="2"/>
         <v>95809880</v>
       </c>
-      <c r="AB6" s="20">
+      <c r="AB6" s="15">
         <f t="shared" si="3"/>
         <v>92402364.899999991</v>
       </c>
-      <c r="AC6" s="20">
+      <c r="AC6" s="15">
         <f t="shared" si="4"/>
         <v>42188407.600000001</v>
       </c>
-      <c r="AD6" s="20">
+      <c r="AD6" s="15">
         <f t="shared" si="5"/>
         <v>134590772.5</v>
       </c>
-      <c r="AH6" s="18">
+      <c r="AH6" s="13">
         <v>0.5300447093765277</v>
       </c>
-      <c r="AI6" s="19">
+      <c r="AI6" s="14">
         <v>0.46995529062347224</v>
       </c>
-      <c r="AL6" s="21">
+      <c r="AL6" s="16">
         <f t="shared" si="6"/>
         <v>0.68654309046335249</v>
       </c>
-      <c r="AM6" s="21">
+      <c r="AM6" s="16">
         <f t="shared" si="7"/>
         <v>0.31345690953664745</v>
       </c>
-      <c r="AP6" s="18">
+      <c r="AP6" s="13">
         <v>0.81578295341922691</v>
       </c>
-      <c r="AQ6" s="19">
+      <c r="AQ6" s="14">
         <v>0.18421704658077304</v>
       </c>
-      <c r="AT6" s="21">
+      <c r="AR6" s="3">
         <f t="shared" si="8"/>
+        <v>0.69583484244838822</v>
+      </c>
+      <c r="AS6" s="3">
+        <f t="shared" si="9"/>
+        <v>0.30416515755161172</v>
+      </c>
+      <c r="AT6" s="16">
+        <f t="shared" si="10"/>
         <v>0.89410530732116633</v>
       </c>
-      <c r="AU6" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU6" s="16">
+        <f t="shared" si="11"/>
         <v>0.10589469267883365</v>
       </c>
     </row>
-    <row r="7" spans="1:49">
+    <row r="7" spans="1:49" ht="16">
       <c r="A7" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="7">
         <v>13496</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>3029</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>16525</v>
       </c>
-      <c r="H7" s="9">
+      <c r="E7" s="30">
+        <v>9543</v>
+      </c>
+      <c r="F7" s="30">
+        <v>4286</v>
+      </c>
+      <c r="G7" s="30">
+        <v>13829</v>
+      </c>
+      <c r="H7" s="6">
         <v>20801</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>2405</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="6">
         <f t="shared" si="1"/>
         <v>23206</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="10">
         <v>4072</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="10">
         <v>15920</v>
       </c>
-      <c r="R7" s="16">
+      <c r="R7" s="11">
         <v>5857.9</v>
       </c>
-      <c r="S7" s="16">
+      <c r="S7" s="11">
         <v>20067.900000000001</v>
       </c>
-      <c r="V7" s="14">
+      <c r="V7" s="9">
         <v>54955712</v>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="9">
         <v>48221680</v>
       </c>
-      <c r="X7" s="14">
+      <c r="X7" s="9">
         <f t="shared" si="2"/>
         <v>103177392</v>
       </c>
-      <c r="AB7" s="20">
+      <c r="AB7" s="15">
         <f t="shared" si="3"/>
         <v>121850177.89999999</v>
       </c>
-      <c r="AC7" s="20">
+      <c r="AC7" s="15">
         <f t="shared" si="4"/>
         <v>48263299.5</v>
       </c>
-      <c r="AD7" s="20">
+      <c r="AD7" s="15">
         <f t="shared" si="5"/>
         <v>170113477.39999998</v>
       </c>
-      <c r="AH7" s="18">
+      <c r="AH7" s="13">
         <v>0.53263327299453356</v>
       </c>
-      <c r="AI7" s="19">
+      <c r="AI7" s="14">
         <v>0.46736672700546644</v>
       </c>
-      <c r="AL7" s="21">
+      <c r="AL7" s="16">
         <f t="shared" si="6"/>
         <v>0.71628762025412573</v>
       </c>
-      <c r="AM7" s="21">
+      <c r="AM7" s="16">
         <f t="shared" si="7"/>
         <v>0.28371237974587432</v>
       </c>
-      <c r="AP7" s="18">
+      <c r="AP7" s="13">
         <v>0.81670196671709527</v>
       </c>
-      <c r="AQ7" s="19">
+      <c r="AQ7" s="14">
         <v>0.1832980332829047</v>
       </c>
-      <c r="AT7" s="21">
+      <c r="AR7" s="3">
         <f t="shared" si="8"/>
+        <v>0.69007158869043317</v>
+      </c>
+      <c r="AS7" s="3">
+        <f t="shared" si="9"/>
+        <v>0.30992841130956683</v>
+      </c>
+      <c r="AT7" s="16">
+        <f t="shared" si="10"/>
         <v>0.8963630095664914</v>
       </c>
-      <c r="AU7" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU7" s="16">
+        <f t="shared" si="11"/>
         <v>0.10363699043350857</v>
       </c>
     </row>
-    <row r="8" spans="1:49">
+    <row r="8" spans="1:49" ht="16">
       <c r="A8" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="7">
         <v>13748</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>3016</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>16764</v>
       </c>
-      <c r="H8" s="9">
+      <c r="E8" s="30">
+        <v>9709</v>
+      </c>
+      <c r="F8" s="30">
+        <v>4420</v>
+      </c>
+      <c r="G8" s="30">
+        <v>14129</v>
+      </c>
+      <c r="H8" s="6">
         <v>20597</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>2283</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="6">
         <f t="shared" si="1"/>
         <v>22880</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="10">
         <v>4451</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="10">
         <v>17549</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="11">
         <f>3364.95*2</f>
         <v>6729.9</v>
       </c>
-      <c r="S8" s="16">
+      <c r="S8" s="11">
         <f>11842.95*2</f>
         <v>23685.9</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="9">
         <v>61192348</v>
       </c>
-      <c r="W8" s="14">
+      <c r="W8" s="9">
         <v>52927784</v>
       </c>
-      <c r="X8" s="14">
+      <c r="X8" s="9">
         <f t="shared" si="2"/>
         <v>114120132</v>
       </c>
-      <c r="AB8" s="20">
+      <c r="AB8" s="15">
         <f t="shared" si="3"/>
         <v>138615750.29999998</v>
       </c>
-      <c r="AC8" s="20">
+      <c r="AC8" s="15">
         <f t="shared" si="4"/>
         <v>54074909.700000003</v>
       </c>
-      <c r="AD8" s="20">
+      <c r="AD8" s="15">
         <f t="shared" si="5"/>
         <v>192690660</v>
       </c>
-      <c r="AH8" s="18">
+      <c r="AH8" s="13">
         <v>0.53620993007614115</v>
       </c>
-      <c r="AI8" s="19">
+      <c r="AI8" s="14">
         <v>0.46379006992385885</v>
       </c>
-      <c r="AL8" s="21">
+      <c r="AL8" s="16">
         <f t="shared" si="6"/>
         <v>0.71936932646346208</v>
       </c>
-      <c r="AM8" s="21">
+      <c r="AM8" s="16">
         <f t="shared" si="7"/>
         <v>0.28063067353653781</v>
       </c>
-      <c r="AP8" s="18">
+      <c r="AP8" s="13">
         <v>0.82009067048437123</v>
       </c>
-      <c r="AQ8" s="19">
+      <c r="AQ8" s="14">
         <v>0.17990932951562874</v>
       </c>
-      <c r="AT8" s="21">
+      <c r="AR8" s="3">
         <f t="shared" si="8"/>
+        <v>0.68716823554391682</v>
+      </c>
+      <c r="AS8" s="3">
+        <f t="shared" si="9"/>
+        <v>0.31283176445608324</v>
+      </c>
+      <c r="AT8" s="16">
+        <f t="shared" si="10"/>
         <v>0.90021853146853148</v>
       </c>
-      <c r="AU8" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU8" s="16">
+        <f t="shared" si="11"/>
         <v>9.9781468531468534E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:49">
+    <row r="9" spans="1:49" ht="16">
       <c r="A9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="7">
         <v>14131</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>2993</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>17124</v>
       </c>
-      <c r="H9" s="9">
+      <c r="E9" s="30">
+        <v>9987</v>
+      </c>
+      <c r="F9" s="30">
+        <v>4226</v>
+      </c>
+      <c r="G9" s="30">
+        <v>14213</v>
+      </c>
+      <c r="H9" s="6">
         <v>21261</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>2221</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="6">
         <f t="shared" si="1"/>
         <v>23482</v>
       </c>
-      <c r="N9" s="15">
+      <c r="N9" s="10">
         <v>4613</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="10">
         <v>18411</v>
       </c>
-      <c r="R9" s="16">
+      <c r="P9" s="28">
+        <v>7180</v>
+      </c>
+      <c r="Q9" s="29">
+        <v>24100</v>
+      </c>
+      <c r="R9" s="11">
         <f>3716.95*2</f>
         <v>7433.9</v>
       </c>
-      <c r="S9" s="16">
+      <c r="S9" s="11">
         <f>12626.95*2</f>
         <v>25253.9</v>
       </c>
-      <c r="V9" s="14">
+      <c r="V9" s="9">
         <v>65186303</v>
       </c>
-      <c r="W9" s="14">
+      <c r="W9" s="9">
         <v>55104123</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="9">
         <f t="shared" si="2"/>
         <v>120290426</v>
       </c>
-      <c r="AB9" s="20">
+      <c r="Y9">
+        <f>E9*P9</f>
+        <v>71706660</v>
+      </c>
+      <c r="Z9">
+        <f>F9*Q9</f>
+        <v>101846600</v>
+      </c>
+      <c r="AA9">
+        <f>Y9+Z9</f>
+        <v>173553260</v>
+      </c>
+      <c r="AB9" s="15">
         <f t="shared" si="3"/>
         <v>158052147.90000001</v>
       </c>
-      <c r="AC9" s="20">
+      <c r="AC9" s="15">
         <f t="shared" si="4"/>
         <v>56088911.900000006</v>
       </c>
-      <c r="AD9" s="20">
+      <c r="AD9" s="15">
         <f t="shared" si="5"/>
         <v>214141059.80000001</v>
       </c>
-      <c r="AH9" s="18">
+      <c r="AH9" s="13">
         <v>0.54190765772165439</v>
       </c>
-      <c r="AI9" s="19">
+      <c r="AI9" s="14">
         <v>0.45809234227834555</v>
       </c>
-      <c r="AL9" s="21">
+      <c r="AJ9" s="3">
+        <f>Y9/AA9</f>
+        <v>0.41316803844537409</v>
+      </c>
+      <c r="AK9" s="3">
+        <f>Z9/AA9</f>
+        <v>0.58683196155462591</v>
+      </c>
+      <c r="AL9" s="16">
         <f t="shared" si="6"/>
         <v>0.73807493083117726</v>
       </c>
-      <c r="AM9" s="21">
+      <c r="AM9" s="16">
         <f t="shared" si="7"/>
         <v>0.26192506916882274</v>
       </c>
-      <c r="AP9" s="18">
+      <c r="AP9" s="13">
         <v>0.8252160710114459</v>
       </c>
-      <c r="AQ9" s="19">
+      <c r="AQ9" s="14">
         <v>0.17478392898855408</v>
       </c>
-      <c r="AT9" s="21">
+      <c r="AR9" s="3">
         <f t="shared" si="8"/>
+        <v>0.70266657285583622</v>
+      </c>
+      <c r="AS9" s="3">
+        <f t="shared" si="9"/>
+        <v>0.29733342714416378</v>
+      </c>
+      <c r="AT9" s="16">
+        <f t="shared" si="10"/>
         <v>0.90541691508389399</v>
       </c>
-      <c r="AU9" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU9" s="16">
+        <f t="shared" si="11"/>
         <v>9.4583084916105953E-2</v>
       </c>
     </row>
@@ -5240,88 +5429,131 @@
       <c r="A10" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="7">
         <v>14513</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>3115</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>17628</v>
       </c>
-      <c r="H10" s="9">
+      <c r="E10" s="27">
+        <v>9808</v>
+      </c>
+      <c r="F10" s="27">
+        <v>4868</v>
+      </c>
+      <c r="G10" s="27">
+        <v>14676</v>
+      </c>
+      <c r="H10" s="6">
         <v>21763</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>2100</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
         <v>23863</v>
       </c>
-      <c r="N10" s="15">
+      <c r="N10" s="10">
         <v>5033</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O10" s="10">
         <v>19681</v>
       </c>
-      <c r="R10" s="16">
+      <c r="P10" s="28">
+        <v>7845</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>25945</v>
+      </c>
+      <c r="R10" s="11">
         <f>3899.75*2</f>
         <v>7799.5</v>
       </c>
-      <c r="S10" s="16">
+      <c r="S10" s="11">
         <f>13241.75*2</f>
         <v>26483.5</v>
       </c>
-      <c r="V10" s="14">
+      <c r="V10" s="9">
         <v>73043929</v>
       </c>
-      <c r="W10" s="14">
+      <c r="W10" s="9">
         <v>61306315</v>
       </c>
-      <c r="X10" s="14">
+      <c r="X10" s="9">
         <f t="shared" si="2"/>
         <v>134350244</v>
       </c>
-      <c r="AB10" s="20">
+      <c r="Y10">
+        <f t="shared" ref="Y10:Y20" si="12">E10*P10</f>
+        <v>76943760</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" ref="Z10:Z20" si="13">F10*Q10</f>
+        <v>126300260</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" ref="AA10:AA20" si="14">Y10+Z10</f>
+        <v>203244020</v>
+      </c>
+      <c r="AB10" s="15">
         <f t="shared" si="3"/>
         <v>169740518.5</v>
       </c>
-      <c r="AC10" s="20">
+      <c r="AC10" s="15">
         <f t="shared" si="4"/>
         <v>55615350</v>
       </c>
-      <c r="AD10" s="20">
+      <c r="AD10" s="15">
         <f t="shared" si="5"/>
         <v>225355868.5</v>
       </c>
-      <c r="AH10" s="18">
+      <c r="AH10" s="13">
         <v>0.54368289052009455</v>
       </c>
-      <c r="AI10" s="19">
+      <c r="AI10" s="14">
         <v>0.45631710947990539</v>
       </c>
-      <c r="AL10" s="21">
+      <c r="AJ10" s="3">
+        <f t="shared" ref="AJ10:AJ20" si="15">Y10/AA10</f>
+        <v>0.37857822335928998</v>
+      </c>
+      <c r="AK10" s="3">
+        <f t="shared" ref="AK10:AK19" si="16">Z10/AA10</f>
+        <v>0.62142177664070997</v>
+      </c>
+      <c r="AL10" s="16">
         <f t="shared" si="6"/>
         <v>0.75321099747619835</v>
       </c>
-      <c r="AM10" s="21">
+      <c r="AM10" s="16">
         <f t="shared" si="7"/>
         <v>0.24678900252380159</v>
       </c>
-      <c r="AP10" s="18">
+      <c r="AP10" s="13">
         <v>0.82329248922169274</v>
       </c>
-      <c r="AQ10" s="19">
+      <c r="AQ10" s="14">
         <v>0.17670751077830724</v>
       </c>
-      <c r="AT10" s="21">
+      <c r="AR10" s="3">
         <f t="shared" si="8"/>
+        <v>0.66830198964295451</v>
+      </c>
+      <c r="AS10" s="3">
+        <f t="shared" si="9"/>
+        <v>0.33169801035704549</v>
+      </c>
+      <c r="AT10" s="16">
+        <f t="shared" si="10"/>
         <v>0.91199765327075388</v>
       </c>
-      <c r="AU10" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU10" s="16">
+        <f t="shared" si="11"/>
         <v>8.8002346729246117E-2</v>
       </c>
     </row>
@@ -5329,88 +5561,131 @@
       <c r="A11" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="7">
         <v>14766</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>3129</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>17895</v>
       </c>
-      <c r="H11" s="9">
+      <c r="E11" s="27">
+        <v>10111</v>
+      </c>
+      <c r="F11" s="27">
+        <v>4967</v>
+      </c>
+      <c r="G11" s="27">
+        <v>15078</v>
+      </c>
+      <c r="H11" s="6">
         <v>22485</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>2151</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="6">
         <f t="shared" si="1"/>
         <v>24636</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="10">
         <v>5340</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O11" s="10">
         <v>20988</v>
       </c>
-      <c r="R11" s="16">
+      <c r="P11" s="28">
+        <v>8500</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>27750</v>
+      </c>
+      <c r="R11" s="11">
         <f>4192.25+4190.75</f>
         <v>8383</v>
       </c>
-      <c r="S11" s="16">
+      <c r="S11" s="11">
         <f>14002.25+14000.75</f>
         <v>28003</v>
       </c>
-      <c r="V11" s="14">
+      <c r="V11" s="9">
         <v>78850440</v>
       </c>
-      <c r="W11" s="14">
+      <c r="W11" s="9">
         <v>65671452</v>
       </c>
-      <c r="X11" s="14">
+      <c r="X11" s="9">
         <f t="shared" si="2"/>
         <v>144521892</v>
       </c>
-      <c r="AB11" s="20">
+      <c r="Y11">
+        <f t="shared" si="12"/>
+        <v>85943500</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="13"/>
+        <v>137834250</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="14"/>
+        <v>223777750</v>
+      </c>
+      <c r="AB11" s="15">
         <f t="shared" si="3"/>
         <v>188491755</v>
       </c>
-      <c r="AC11" s="20">
+      <c r="AC11" s="15">
         <f t="shared" si="4"/>
         <v>60234453</v>
       </c>
-      <c r="AD11" s="20">
+      <c r="AD11" s="15">
         <f t="shared" si="5"/>
         <v>248726208</v>
       </c>
-      <c r="AH11" s="18">
+      <c r="AH11" s="13">
         <v>0.54559512686147227</v>
       </c>
-      <c r="AI11" s="19">
+      <c r="AI11" s="14">
         <v>0.45440487313852768</v>
       </c>
-      <c r="AL11" s="21">
+      <c r="AJ11" s="3">
+        <f t="shared" si="15"/>
+        <v>0.38405739623353974</v>
+      </c>
+      <c r="AK11" s="3">
+        <f t="shared" si="16"/>
+        <v>0.61594260376646026</v>
+      </c>
+      <c r="AL11" s="16">
         <f t="shared" si="6"/>
         <v>0.75782828241405109</v>
       </c>
-      <c r="AM11" s="21">
+      <c r="AM11" s="16">
         <f t="shared" si="7"/>
         <v>0.24217171758594896</v>
       </c>
-      <c r="AP11" s="18">
+      <c r="AP11" s="13">
         <v>0.82514668901927912</v>
       </c>
-      <c r="AQ11" s="19">
+      <c r="AQ11" s="14">
         <v>0.17485331098072088</v>
       </c>
-      <c r="AT11" s="21">
+      <c r="AR11" s="3">
         <f t="shared" si="8"/>
+        <v>0.67057965247380291</v>
+      </c>
+      <c r="AS11" s="3">
+        <f t="shared" si="9"/>
+        <v>0.32942034752619709</v>
+      </c>
+      <c r="AT11" s="16">
+        <f t="shared" si="10"/>
         <v>0.91268874817340473</v>
       </c>
-      <c r="AU11" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU11" s="16">
+        <f t="shared" si="11"/>
         <v>8.7311251826595229E-2</v>
       </c>
     </row>
@@ -5418,88 +5693,131 @@
       <c r="A12" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="7">
         <v>14838</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="7">
         <v>3143</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>17981</v>
       </c>
-      <c r="H12" s="9">
+      <c r="E12" s="27">
+        <v>10134</v>
+      </c>
+      <c r="F12" s="27">
+        <v>5073</v>
+      </c>
+      <c r="G12" s="27">
+        <v>15207</v>
+      </c>
+      <c r="H12" s="6">
         <v>22827</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>2324</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="6">
         <f t="shared" si="1"/>
         <v>25151</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="10">
         <v>5397</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="10">
         <v>22295</v>
       </c>
-      <c r="R12" s="16">
+      <c r="P12" s="27">
+        <v>9498</v>
+      </c>
+      <c r="Q12" s="27">
+        <v>29798</v>
+      </c>
+      <c r="R12" s="11">
         <f>4465.75*2</f>
         <v>8931.5</v>
       </c>
-      <c r="S12" s="16">
+      <c r="S12" s="11">
         <f>14769.75*2</f>
         <v>29539.5</v>
       </c>
-      <c r="V12" s="14">
+      <c r="V12" s="9">
         <v>80080686</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="9">
         <v>70073185</v>
       </c>
-      <c r="X12" s="14">
+      <c r="X12" s="9">
         <f t="shared" si="2"/>
         <v>150153871</v>
       </c>
-      <c r="AB12" s="20">
+      <c r="Y12">
+        <f t="shared" si="12"/>
+        <v>96252732</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="13"/>
+        <v>151165254</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="14"/>
+        <v>247417986</v>
+      </c>
+      <c r="AB12" s="15">
         <f t="shared" si="3"/>
         <v>203879350.5</v>
       </c>
-      <c r="AC12" s="20">
+      <c r="AC12" s="15">
         <f t="shared" si="4"/>
         <v>68649798</v>
       </c>
-      <c r="AD12" s="20">
+      <c r="AD12" s="15">
         <f t="shared" si="5"/>
         <v>272529148.5</v>
       </c>
-      <c r="AH12" s="18">
+      <c r="AH12" s="13">
         <v>0.53332415252884158</v>
       </c>
-      <c r="AI12" s="19">
+      <c r="AI12" s="14">
         <v>0.46667584747115842</v>
       </c>
-      <c r="AL12" s="21">
+      <c r="AJ12" s="3">
+        <f t="shared" si="15"/>
+        <v>0.3890288396414317</v>
+      </c>
+      <c r="AK12" s="3">
+        <f t="shared" si="16"/>
+        <v>0.61097116035856824</v>
+      </c>
+      <c r="AL12" s="16">
         <f t="shared" si="6"/>
         <v>0.74810108064459024</v>
       </c>
-      <c r="AM12" s="21">
+      <c r="AM12" s="16">
         <f t="shared" si="7"/>
         <v>0.25189891935540981</v>
       </c>
-      <c r="AP12" s="18">
+      <c r="AP12" s="13">
         <v>0.82520438240364835</v>
       </c>
-      <c r="AQ12" s="19">
+      <c r="AQ12" s="14">
         <v>0.1747956175963517</v>
       </c>
-      <c r="AT12" s="21">
+      <c r="AR12" s="3">
         <f t="shared" si="8"/>
+        <v>0.66640362990727953</v>
+      </c>
+      <c r="AS12" s="3">
+        <f t="shared" si="9"/>
+        <v>0.33359637009272047</v>
+      </c>
+      <c r="AT12" s="16">
+        <f t="shared" si="10"/>
         <v>0.90759810743111602</v>
       </c>
-      <c r="AU12" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU12" s="16">
+        <f t="shared" si="11"/>
         <v>9.2401892568883939E-2</v>
       </c>
     </row>
@@ -5507,88 +5825,131 @@
       <c r="A13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="7">
         <v>15111</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="7">
         <v>3468</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>18579</v>
       </c>
-      <c r="H13" s="9">
+      <c r="E13" s="27">
+        <v>10198</v>
+      </c>
+      <c r="F13" s="27">
+        <v>5278</v>
+      </c>
+      <c r="G13" s="27">
+        <v>15476</v>
+      </c>
+      <c r="H13" s="6">
         <v>22940</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>2590</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="6">
         <f t="shared" si="1"/>
         <v>25530</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="10">
         <v>5625</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="10">
         <v>23513</v>
       </c>
-      <c r="R13" s="9">
+      <c r="P13" s="27">
+        <v>9880</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>31880</v>
+      </c>
+      <c r="R13" s="6">
         <f>4874.25+5459.25</f>
         <v>10333.5</v>
       </c>
-      <c r="S13" s="9">
+      <c r="S13" s="6">
         <f>16208.75+16841.75</f>
         <v>33050.5</v>
       </c>
-      <c r="V13" s="14">
+      <c r="V13" s="9">
         <v>84999375</v>
       </c>
-      <c r="W13" s="14">
+      <c r="W13" s="9">
         <v>81543084</v>
       </c>
-      <c r="X13" s="14">
+      <c r="X13" s="9">
         <f t="shared" si="2"/>
         <v>166542459</v>
       </c>
-      <c r="AB13" s="20">
+      <c r="Y13">
+        <f t="shared" si="12"/>
+        <v>100756240</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="13"/>
+        <v>168262640</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="14"/>
+        <v>269018880</v>
+      </c>
+      <c r="AB13" s="15">
         <f t="shared" si="3"/>
         <v>237050490</v>
       </c>
-      <c r="AC13" s="20">
+      <c r="AC13" s="15">
         <f t="shared" si="4"/>
         <v>85600795</v>
       </c>
-      <c r="AD13" s="20">
+      <c r="AD13" s="15">
         <f t="shared" si="5"/>
         <v>322651285</v>
       </c>
-      <c r="AH13" s="18">
+      <c r="AH13" s="13">
         <v>0.51037660612420765</v>
       </c>
-      <c r="AI13" s="19">
+      <c r="AI13" s="14">
         <v>0.48962339387579235</v>
       </c>
-      <c r="AL13" s="21">
+      <c r="AJ13" s="3">
+        <f t="shared" si="15"/>
+        <v>0.37453222613966725</v>
+      </c>
+      <c r="AK13" s="3">
+        <f t="shared" si="16"/>
+        <v>0.62546777386033281</v>
+      </c>
+      <c r="AL13" s="16">
         <f t="shared" si="6"/>
         <v>0.73469563277889938</v>
       </c>
-      <c r="AM13" s="21">
+      <c r="AM13" s="16">
         <f t="shared" si="7"/>
         <v>0.26530436722110062</v>
       </c>
-      <c r="AP13" s="18">
+      <c r="AP13" s="13">
         <v>0.81333763927014369</v>
       </c>
-      <c r="AQ13" s="19">
+      <c r="AQ13" s="14">
         <v>0.18666236072985629</v>
       </c>
-      <c r="AT13" s="21">
+      <c r="AR13" s="3">
         <f t="shared" si="8"/>
+        <v>0.65895580253295427</v>
+      </c>
+      <c r="AS13" s="3">
+        <f t="shared" si="9"/>
+        <v>0.34104419746704573</v>
+      </c>
+      <c r="AT13" s="16">
+        <f t="shared" si="10"/>
         <v>0.89855072463768115</v>
       </c>
-      <c r="AU13" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU13" s="16">
+        <f t="shared" si="11"/>
         <v>0.10144927536231885</v>
       </c>
     </row>
@@ -5596,88 +5957,131 @@
       <c r="A14" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="7">
         <v>14893</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="7">
         <v>3537</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>18430</v>
       </c>
-      <c r="H14" s="9">
+      <c r="E14" s="27">
+        <v>10370</v>
+      </c>
+      <c r="F14" s="27">
+        <v>5225</v>
+      </c>
+      <c r="G14" s="27">
+        <v>15595</v>
+      </c>
+      <c r="H14" s="6">
         <v>22305</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>3235</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="6">
         <f t="shared" si="1"/>
         <v>25540</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="10">
         <v>6665</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="10">
         <v>25280</v>
       </c>
-      <c r="R14" s="9">
+      <c r="P14" s="27">
+        <v>10836</v>
+      </c>
+      <c r="Q14" s="27">
+        <v>33782</v>
+      </c>
+      <c r="R14" s="6">
         <f>6230.75*2</f>
         <v>12461.5</v>
       </c>
-      <c r="S14" s="9">
+      <c r="S14" s="6">
         <f>17670.25*2</f>
         <v>35340.5</v>
       </c>
-      <c r="V14" s="14">
+      <c r="V14" s="9">
         <v>99261845</v>
       </c>
-      <c r="W14" s="14">
+      <c r="W14" s="9">
         <v>89415360</v>
       </c>
-      <c r="X14" s="14">
+      <c r="X14" s="9">
         <f t="shared" si="2"/>
         <v>188677205</v>
       </c>
-      <c r="AB14" s="20">
+      <c r="Y14">
+        <f t="shared" si="12"/>
+        <v>112369320</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="13"/>
+        <v>176510950</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="14"/>
+        <v>288880270</v>
+      </c>
+      <c r="AB14" s="15">
         <f t="shared" si="3"/>
         <v>277953757.5</v>
       </c>
-      <c r="AC14" s="20">
+      <c r="AC14" s="15">
         <f t="shared" si="4"/>
         <v>114326517.5</v>
       </c>
-      <c r="AD14" s="20">
+      <c r="AD14" s="15">
         <f t="shared" si="5"/>
         <v>392280275</v>
       </c>
-      <c r="AH14" s="18">
+      <c r="AH14" s="13">
         <v>0.52609346741170993</v>
       </c>
-      <c r="AI14" s="19">
+      <c r="AI14" s="14">
         <v>0.47390653258829013</v>
       </c>
-      <c r="AL14" s="21">
+      <c r="AJ14" s="3">
+        <f t="shared" si="15"/>
+        <v>0.38898232821507678</v>
+      </c>
+      <c r="AK14" s="3">
+        <f t="shared" si="16"/>
+        <v>0.61101767178492317</v>
+      </c>
+      <c r="AL14" s="16">
         <f t="shared" si="6"/>
         <v>0.70855909719141497</v>
       </c>
-      <c r="AM14" s="21">
+      <c r="AM14" s="16">
         <f t="shared" si="7"/>
         <v>0.29144090280858503</v>
       </c>
-      <c r="AP14" s="18">
+      <c r="AP14" s="13">
         <v>0.80808464460119367</v>
       </c>
-      <c r="AQ14" s="19">
+      <c r="AQ14" s="14">
         <v>0.1919153553988063</v>
       </c>
-      <c r="AT14" s="21">
+      <c r="AR14" s="3">
         <f t="shared" si="8"/>
+        <v>0.6649567168964412</v>
+      </c>
+      <c r="AS14" s="3">
+        <f t="shared" si="9"/>
+        <v>0.33504328310355885</v>
+      </c>
+      <c r="AT14" s="16">
+        <f t="shared" si="10"/>
         <v>0.87333594361785438</v>
       </c>
-      <c r="AU14" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU14" s="16">
+        <f t="shared" si="11"/>
         <v>0.12666405638214565</v>
       </c>
     </row>
@@ -5685,88 +6089,131 @@
       <c r="A15" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <v>14901</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="7">
         <v>3602</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>18503</v>
       </c>
-      <c r="H15" s="9">
+      <c r="E15" s="27">
+        <v>10592</v>
+      </c>
+      <c r="F15" s="27">
+        <v>5170</v>
+      </c>
+      <c r="G15" s="27">
+        <v>15762</v>
+      </c>
+      <c r="H15" s="6">
         <v>21517</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="6">
         <v>4368</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="6">
         <f t="shared" si="1"/>
         <v>25885</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="10">
         <v>7009</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="10">
         <v>26834</v>
       </c>
-      <c r="R15" s="17">
+      <c r="P15" s="27">
+        <v>11794</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>36788</v>
+      </c>
+      <c r="R15" s="12">
         <f>7230.25*2</f>
         <v>14460.5</v>
       </c>
-      <c r="S15" s="9">
+      <c r="S15" s="6">
         <f>18669.25*2</f>
         <v>37338.5</v>
       </c>
-      <c r="V15" s="14">
+      <c r="V15" s="9">
         <v>104441109</v>
       </c>
-      <c r="W15" s="14">
+      <c r="W15" s="9">
         <v>96656068</v>
       </c>
-      <c r="X15" s="14">
+      <c r="X15" s="9">
         <f t="shared" si="2"/>
         <v>201097177</v>
       </c>
-      <c r="AB15" s="20">
+      <c r="Y15">
+        <f t="shared" si="12"/>
+        <v>124922048</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="13"/>
+        <v>190193960</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="14"/>
+        <v>315116008</v>
+      </c>
+      <c r="AB15" s="15">
         <f t="shared" si="3"/>
         <v>311146578.5</v>
       </c>
-      <c r="AC15" s="20">
+      <c r="AC15" s="15">
         <f t="shared" si="4"/>
         <v>163094568</v>
       </c>
-      <c r="AD15" s="20">
+      <c r="AD15" s="15">
         <f t="shared" si="5"/>
         <v>474241146.5</v>
       </c>
-      <c r="AH15" s="18">
+      <c r="AH15" s="13">
         <v>0.51935641543093369</v>
       </c>
-      <c r="AI15" s="19">
+      <c r="AI15" s="14">
         <v>0.48064358456906631</v>
       </c>
-      <c r="AL15" s="21">
+      <c r="AJ15" s="3">
+        <f t="shared" si="15"/>
+        <v>0.39643193245834724</v>
+      </c>
+      <c r="AK15" s="3">
+        <f t="shared" si="16"/>
+        <v>0.60356806754165282</v>
+      </c>
+      <c r="AL15" s="16">
         <f t="shared" si="6"/>
         <v>0.65609359456961414</v>
       </c>
-      <c r="AM15" s="21">
+      <c r="AM15" s="16">
         <f t="shared" si="7"/>
         <v>0.34390640543038581</v>
       </c>
-      <c r="AP15" s="18">
+      <c r="AP15" s="13">
         <v>0.8053288655893639</v>
       </c>
-      <c r="AQ15" s="19">
+      <c r="AQ15" s="14">
         <v>0.1946711344106361</v>
       </c>
-      <c r="AT15" s="21">
+      <c r="AR15" s="3">
         <f t="shared" si="8"/>
+        <v>0.67199593960157344</v>
+      </c>
+      <c r="AS15" s="3">
+        <f t="shared" si="9"/>
+        <v>0.32800406039842661</v>
+      </c>
+      <c r="AT15" s="16">
+        <f t="shared" si="10"/>
         <v>0.83125362178868067</v>
       </c>
-      <c r="AU15" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU15" s="16">
+        <f t="shared" si="11"/>
         <v>0.1687463782113193</v>
       </c>
     </row>
@@ -5774,88 +6221,131 @@
       <c r="A16" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="7">
         <v>14838</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="7">
         <v>3532</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>18370</v>
       </c>
-      <c r="H16" s="9">
+      <c r="E16" s="27">
+        <v>10518</v>
+      </c>
+      <c r="F16" s="27">
+        <v>5304</v>
+      </c>
+      <c r="G16" s="27">
+        <v>15822</v>
+      </c>
+      <c r="H16" s="6">
         <v>20827</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="6">
         <v>4947</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="6">
         <f t="shared" si="1"/>
         <v>25774</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="10">
         <v>7690</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="10">
         <v>28442</v>
       </c>
-      <c r="R16" s="9">
+      <c r="P16" s="27">
+        <v>12224</v>
+      </c>
+      <c r="Q16" s="27">
+        <v>38236</v>
+      </c>
+      <c r="R16" s="6">
         <f>7492.75*2</f>
         <v>14985.5</v>
       </c>
-      <c r="S16" s="9">
+      <c r="S16" s="6">
         <f>18931.75*2</f>
         <v>37863.5</v>
       </c>
-      <c r="V16" s="14">
+      <c r="V16" s="9">
         <v>114104220</v>
       </c>
-      <c r="W16" s="14">
+      <c r="W16" s="9">
         <v>100457144</v>
       </c>
-      <c r="X16" s="14">
+      <c r="X16" s="9">
         <f t="shared" si="2"/>
         <v>214561364</v>
       </c>
-      <c r="AB16" s="20">
+      <c r="Y16">
+        <f t="shared" si="12"/>
+        <v>128572032</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="13"/>
+        <v>202803744</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="14"/>
+        <v>331375776</v>
+      </c>
+      <c r="AB16" s="15">
         <f t="shared" si="3"/>
         <v>312103008.5</v>
       </c>
-      <c r="AC16" s="20">
+      <c r="AC16" s="15">
         <f t="shared" si="4"/>
         <v>187310734.5</v>
       </c>
-      <c r="AD16" s="20">
+      <c r="AD16" s="15">
         <f t="shared" si="5"/>
         <v>499413743</v>
       </c>
-      <c r="AH16" s="18">
+      <c r="AH16" s="13">
         <v>0.53180226799825903</v>
       </c>
-      <c r="AI16" s="19">
+      <c r="AI16" s="14">
         <v>0.46819773200174103</v>
       </c>
-      <c r="AL16" s="21">
+      <c r="AJ16" s="3">
+        <f t="shared" si="15"/>
+        <v>0.38799466138405964</v>
+      </c>
+      <c r="AK16" s="3">
+        <f t="shared" si="16"/>
+        <v>0.61200533861594031</v>
+      </c>
+      <c r="AL16" s="16">
         <f t="shared" si="6"/>
         <v>0.62493876645280866</v>
       </c>
-      <c r="AM16" s="21">
+      <c r="AM16" s="16">
         <f t="shared" si="7"/>
         <v>0.37506123354719134</v>
       </c>
-      <c r="AP16" s="18">
+      <c r="AP16" s="13">
         <v>0.80772999455634187</v>
       </c>
-      <c r="AQ16" s="19">
+      <c r="AQ16" s="14">
         <v>0.19227000544365813</v>
       </c>
-      <c r="AT16" s="21">
+      <c r="AR16" s="3">
         <f t="shared" si="8"/>
+        <v>0.66477057262040196</v>
+      </c>
+      <c r="AS16" s="3">
+        <f t="shared" si="9"/>
+        <v>0.33522942737959804</v>
+      </c>
+      <c r="AT16" s="16">
+        <f t="shared" si="10"/>
         <v>0.80806238845348022</v>
       </c>
-      <c r="AU16" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU16" s="16">
+        <f t="shared" si="11"/>
         <v>0.19193761154651975</v>
       </c>
     </row>
@@ -5863,88 +6353,131 @@
       <c r="A17" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="7">
         <v>14808</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="7">
         <v>3542</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>18350</v>
       </c>
-      <c r="H17" s="9">
+      <c r="E17" s="27">
+        <v>10754</v>
+      </c>
+      <c r="F17" s="27">
+        <v>5332</v>
+      </c>
+      <c r="G17" s="27">
+        <v>16086</v>
+      </c>
+      <c r="H17" s="6">
         <v>19885</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="6">
         <v>6066</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="6">
         <f t="shared" si="1"/>
         <v>25951</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="10">
         <v>8340</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="10">
         <v>30122</v>
       </c>
-      <c r="R17" s="9">
+      <c r="P17" s="27">
+        <v>12676</v>
+      </c>
+      <c r="Q17" s="27">
+        <v>40062</v>
+      </c>
+      <c r="R17" s="6">
         <f>7610.75*2</f>
         <v>15221.5</v>
       </c>
-      <c r="S17" s="9">
+      <c r="S17" s="6">
         <f>19049.75*2</f>
         <v>38099.5</v>
       </c>
-      <c r="V17" s="14">
+      <c r="V17" s="9">
         <v>123498720</v>
       </c>
-      <c r="W17" s="14">
+      <c r="W17" s="9">
         <v>106692124</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="9">
         <f t="shared" si="2"/>
         <v>230190844</v>
       </c>
-      <c r="AB17" s="20">
+      <c r="Y17">
+        <f t="shared" si="12"/>
+        <v>136317704</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="13"/>
+        <v>213610584</v>
+      </c>
+      <c r="AA17">
+        <f t="shared" si="14"/>
+        <v>349928288</v>
+      </c>
+      <c r="AB17" s="15">
         <f t="shared" si="3"/>
         <v>302679527.5</v>
       </c>
-      <c r="AC17" s="20">
+      <c r="AC17" s="15">
         <f t="shared" si="4"/>
         <v>231111567</v>
       </c>
-      <c r="AD17" s="20">
+      <c r="AD17" s="15">
         <f t="shared" si="5"/>
         <v>533791094.5</v>
       </c>
-      <c r="AH17" s="18">
+      <c r="AH17" s="13">
         <v>0.53650578734573817</v>
       </c>
-      <c r="AI17" s="19">
+      <c r="AI17" s="14">
         <v>0.46349421265426177</v>
       </c>
-      <c r="AL17" s="21">
+      <c r="AJ17" s="3">
+        <f t="shared" si="15"/>
+        <v>0.38955897157991409</v>
+      </c>
+      <c r="AK17" s="3">
+        <f t="shared" si="16"/>
+        <v>0.61044102842008585</v>
+      </c>
+      <c r="AL17" s="16">
         <f t="shared" si="6"/>
         <v>0.56703742460057094</v>
       </c>
-      <c r="AM17" s="21">
+      <c r="AM17" s="16">
         <f t="shared" si="7"/>
         <v>0.43296257539942906</v>
       </c>
-      <c r="AP17" s="18">
+      <c r="AP17" s="13">
         <v>0.80697547683923709</v>
       </c>
-      <c r="AQ17" s="19">
+      <c r="AQ17" s="14">
         <v>0.19302452316076293</v>
       </c>
-      <c r="AT17" s="21">
+      <c r="AR17" s="3">
         <f t="shared" si="8"/>
+        <v>0.66853164242198182</v>
+      </c>
+      <c r="AS17" s="3">
+        <f t="shared" si="9"/>
+        <v>0.33146835757801818</v>
+      </c>
+      <c r="AT17" s="16">
+        <f t="shared" si="10"/>
         <v>0.76625178220492463</v>
       </c>
-      <c r="AU17" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU17" s="16">
+        <f t="shared" si="11"/>
         <v>0.23374821779507535</v>
       </c>
     </row>
@@ -5952,88 +6485,131 @@
       <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="7">
         <v>14871</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="7">
         <v>3544</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>18415</v>
       </c>
-      <c r="H18" s="9">
+      <c r="E18" s="27">
+        <v>11021</v>
+      </c>
+      <c r="F18" s="27">
+        <v>5462</v>
+      </c>
+      <c r="G18" s="27">
+        <v>16483</v>
+      </c>
+      <c r="H18" s="6">
         <v>20572</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="6">
         <v>6554</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="6">
         <f t="shared" si="1"/>
         <v>27126</v>
       </c>
-      <c r="N18" s="15">
+      <c r="N18" s="10">
         <v>8346</v>
       </c>
-      <c r="O18" s="15">
+      <c r="O18" s="10">
         <v>33687</v>
       </c>
-      <c r="R18" s="9">
+      <c r="P18" s="27">
+        <v>13216</v>
+      </c>
+      <c r="Q18" s="27">
+        <v>42402</v>
+      </c>
+      <c r="R18" s="6">
         <f>7755.75*2</f>
         <v>15511.5</v>
       </c>
-      <c r="S18" s="9">
+      <c r="S18" s="6">
         <f>19194.75*2</f>
         <v>38389.5</v>
       </c>
-      <c r="V18" s="14">
+      <c r="V18" s="9">
         <v>124113366</v>
       </c>
-      <c r="W18" s="14">
+      <c r="W18" s="9">
         <v>119386728</v>
       </c>
-      <c r="X18" s="14">
+      <c r="X18" s="9">
         <f t="shared" si="2"/>
         <v>243500094</v>
       </c>
-      <c r="AB18" s="20">
+      <c r="Y18">
+        <f t="shared" si="12"/>
+        <v>145653536</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="13"/>
+        <v>231599724</v>
+      </c>
+      <c r="AA18">
+        <f t="shared" si="14"/>
+        <v>377253260</v>
+      </c>
+      <c r="AB18" s="15">
         <f t="shared" si="3"/>
         <v>319102578</v>
       </c>
-      <c r="AC18" s="20">
+      <c r="AC18" s="15">
         <f t="shared" si="4"/>
         <v>251604783</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AD18" s="15">
         <f t="shared" si="5"/>
         <v>570707361</v>
       </c>
-      <c r="AH18" s="18">
+      <c r="AH18" s="13">
         <v>0.50970561842986395</v>
       </c>
-      <c r="AI18" s="19">
+      <c r="AI18" s="14">
         <v>0.49029438157013605</v>
       </c>
-      <c r="AL18" s="21">
+      <c r="AJ18" s="3">
+        <f t="shared" si="15"/>
+        <v>0.38608953571401877</v>
+      </c>
+      <c r="AK18" s="3">
+        <f t="shared" si="16"/>
+        <v>0.61391046428598128</v>
+      </c>
+      <c r="AL18" s="16">
         <f t="shared" si="6"/>
         <v>0.55913520624802315</v>
       </c>
-      <c r="AM18" s="21">
+      <c r="AM18" s="16">
         <f t="shared" si="7"/>
         <v>0.44086479375197685</v>
       </c>
-      <c r="AP18" s="18">
+      <c r="AP18" s="13">
         <v>0.80754819440673364</v>
       </c>
-      <c r="AQ18" s="19">
+      <c r="AQ18" s="14">
         <v>0.19245180559326636</v>
       </c>
-      <c r="AT18" s="21">
+      <c r="AR18" s="3">
         <f t="shared" si="8"/>
+        <v>0.66862828368622218</v>
+      </c>
+      <c r="AS18" s="3">
+        <f t="shared" si="9"/>
+        <v>0.33137171631377782</v>
+      </c>
+      <c r="AT18" s="16">
+        <f t="shared" si="10"/>
         <v>0.75838678758386791</v>
       </c>
-      <c r="AU18" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU18" s="16">
+        <f t="shared" si="11"/>
         <v>0.24161321241613212</v>
       </c>
     </row>
@@ -6041,88 +6617,131 @@
       <c r="A19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="7">
         <v>15052</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="7">
         <v>3471</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>18523</v>
       </c>
-      <c r="H19" s="9">
+      <c r="E19" s="27">
+        <v>11234</v>
+      </c>
+      <c r="F19" s="27">
+        <v>5502</v>
+      </c>
+      <c r="G19" s="27">
+        <v>16736</v>
+      </c>
+      <c r="H19" s="6">
         <v>20780</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <v>6716</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="6">
         <f t="shared" si="1"/>
         <v>27496</v>
       </c>
-      <c r="N19" s="15">
+      <c r="N19" s="10">
         <v>8591</v>
       </c>
-      <c r="O19" s="15">
+      <c r="O19" s="10">
         <v>33673</v>
       </c>
-      <c r="R19" s="9">
+      <c r="P19" s="27">
+        <v>14686</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>43982</v>
+      </c>
+      <c r="R19" s="6">
         <f>8185.25*2</f>
         <v>16370.5</v>
       </c>
-      <c r="S19" s="9">
+      <c r="S19" s="6">
         <f>20539.25*2</f>
         <v>41078.5</v>
       </c>
-      <c r="V19" s="14">
+      <c r="V19" s="9">
         <v>129311732</v>
       </c>
-      <c r="W19" s="14">
+      <c r="W19" s="9">
         <v>116878983</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X19" s="9">
         <f t="shared" si="2"/>
         <v>246190715</v>
       </c>
-      <c r="AB19" s="20">
+      <c r="Y19">
+        <f t="shared" si="12"/>
+        <v>164982524</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="13"/>
+        <v>241988964</v>
+      </c>
+      <c r="AA19">
+        <f t="shared" si="14"/>
+        <v>406971488</v>
+      </c>
+      <c r="AB19" s="15">
         <f t="shared" si="3"/>
         <v>340178990</v>
       </c>
-      <c r="AC19" s="20">
+      <c r="AC19" s="15">
         <f t="shared" si="4"/>
         <v>275883206</v>
       </c>
-      <c r="AD19" s="20">
+      <c r="AD19" s="15">
         <f t="shared" si="5"/>
         <v>616062196</v>
       </c>
-      <c r="AH19" s="18">
+      <c r="AH19" s="13">
         <v>0.52525023943327831</v>
       </c>
-      <c r="AI19" s="19">
+      <c r="AI19" s="14">
         <v>0.47474976056672163</v>
       </c>
-      <c r="AL19" s="21">
+      <c r="AJ19" s="3">
+        <f t="shared" si="15"/>
+        <v>0.4053908661041139</v>
+      </c>
+      <c r="AK19" s="3">
+        <f t="shared" si="16"/>
+        <v>0.5946091338958861</v>
+      </c>
+      <c r="AL19" s="16">
         <f t="shared" si="6"/>
         <v>0.55218286758825885</v>
       </c>
-      <c r="AM19" s="21">
+      <c r="AM19" s="16">
         <f t="shared" si="7"/>
         <v>0.44781713241174109</v>
       </c>
-      <c r="AP19" s="18">
+      <c r="AP19" s="13">
         <v>0.812611348053771</v>
       </c>
-      <c r="AQ19" s="19">
+      <c r="AQ19" s="14">
         <v>0.187388651946229</v>
       </c>
-      <c r="AT19" s="21">
+      <c r="AR19" s="3">
         <f t="shared" si="8"/>
+        <v>0.67124760994263866</v>
+      </c>
+      <c r="AS19" s="3">
+        <f t="shared" si="9"/>
+        <v>0.3287523900573614</v>
+      </c>
+      <c r="AT19" s="16">
+        <f t="shared" si="10"/>
         <v>0.75574629036950824</v>
       </c>
-      <c r="AU19" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU19" s="16">
+        <f t="shared" si="11"/>
         <v>0.2442537096304917</v>
       </c>
     </row>
@@ -6130,103 +6749,194 @@
       <c r="A20" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="7">
         <v>15487</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="7">
         <v>3375</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>18862</v>
       </c>
-      <c r="H20" s="9">
+      <c r="E20" s="27">
+        <v>11361</v>
+      </c>
+      <c r="F20" s="27">
+        <v>4970</v>
+      </c>
+      <c r="G20" s="27">
+        <v>16331</v>
+      </c>
+      <c r="H20" s="6">
         <v>22161</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <v>7147</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="6">
         <f t="shared" si="1"/>
         <v>29308</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N20" s="10">
         <v>8835</v>
       </c>
-      <c r="O20" s="15">
+      <c r="O20" s="10">
         <v>33916</v>
       </c>
-      <c r="R20" s="9">
+      <c r="P20" s="27">
+        <v>15932</v>
+      </c>
+      <c r="Q20" s="27">
+        <v>45276</v>
+      </c>
+      <c r="R20" s="6">
         <f>8243.25*2</f>
         <v>16486.5</v>
       </c>
-      <c r="S20" s="9">
+      <c r="S20" s="6">
         <f>21584.25*2</f>
         <v>43168.5</v>
       </c>
-      <c r="V20" s="14">
+      <c r="V20" s="9">
         <v>136827645</v>
       </c>
-      <c r="W20" s="14">
+      <c r="W20" s="9">
         <v>114466500</v>
       </c>
-      <c r="X20" s="14">
+      <c r="X20" s="9">
         <f t="shared" si="2"/>
         <v>251294145</v>
       </c>
-      <c r="AB20" s="20">
+      <c r="Y20">
+        <f t="shared" si="12"/>
+        <v>181003452</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="13"/>
+        <v>225021720</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="14"/>
+        <v>406025172</v>
+      </c>
+      <c r="AB20" s="15">
         <f t="shared" si="3"/>
         <v>365357326.5</v>
       </c>
-      <c r="AC20" s="20">
+      <c r="AC20" s="15">
         <f t="shared" si="4"/>
         <v>308525269.5</v>
       </c>
-      <c r="AD20" s="20">
+      <c r="AD20" s="15">
         <f t="shared" si="5"/>
         <v>673882596</v>
       </c>
-      <c r="AH20" s="18">
+      <c r="AH20" s="13">
         <v>0.54449197373858427</v>
       </c>
-      <c r="AI20" s="19">
+      <c r="AI20" s="14">
         <v>0.45550802626141568</v>
       </c>
-      <c r="AL20" s="21">
+      <c r="AJ20" s="3">
+        <f t="shared" si="15"/>
+        <v>0.44579367113721707</v>
+      </c>
+      <c r="AK20" s="3">
+        <f>Z20/AA20</f>
+        <v>0.55420632886278287</v>
+      </c>
+      <c r="AL20" s="16">
         <f t="shared" si="6"/>
         <v>0.54216762484840908</v>
       </c>
-      <c r="AM20" s="21">
+      <c r="AM20" s="16">
         <f t="shared" si="7"/>
         <v>0.45783237515159092</v>
       </c>
-      <c r="AP20" s="18">
+      <c r="AP20" s="13">
         <v>0.82106881560810097</v>
       </c>
-      <c r="AQ20" s="19">
+      <c r="AQ20" s="14">
         <v>0.17893118439189906</v>
       </c>
-      <c r="AT20" s="21">
+      <c r="AR20" s="3">
         <f t="shared" si="8"/>
+        <v>0.69567081011573084</v>
+      </c>
+      <c r="AS20" s="3">
+        <f t="shared" si="9"/>
+        <v>0.30432918988426916</v>
+      </c>
+      <c r="AT20" s="16">
+        <f t="shared" si="10"/>
         <v>0.7561416678040126</v>
       </c>
-      <c r="AU20" s="21">
-        <f t="shared" si="9"/>
+      <c r="AU20" s="16">
+        <f t="shared" si="11"/>
         <v>0.24385833219598743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" ht="17">
+      <c r="O28" s="26"/>
+    </row>
+    <row r="30" spans="1:47" ht="16">
+      <c r="E30" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="32">
+        <v>2001</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" ht="16">
+      <c r="E31" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="32">
+        <v>2002</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" ht="16">
+      <c r="E32" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="32">
+        <v>2003</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" ht="16">
+      <c r="E33" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="32">
+        <v>2004</v>
+      </c>
+      <c r="G33" s="32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" ht="16">
+      <c r="E34" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="F34" s="32">
+        <v>2005</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AG1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="AP1:AW1"/>
     <mergeCell ref="AP2:AQ2"/>
@@ -6243,7 +6953,24 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AG1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E30" r:id="rId1"/>
+    <hyperlink ref="E31" r:id="rId2"/>
+    <hyperlink ref="E32" r:id="rId3"/>
+    <hyperlink ref="E33" r:id="rId4"/>
+    <hyperlink ref="E34" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/UNCCH-tuition.xlsx
+++ b/data/UNCCH-tuition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="0" windowWidth="25360" windowHeight="14860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="25500" windowHeight="14860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
   <si>
     <t>1947-1948</t>
   </si>
@@ -311,12 +311,6 @@
   </si>
   <si>
     <t>Enrollment %</t>
-  </si>
-  <si>
-    <t>University of Virginia</t>
-  </si>
-  <si>
-    <t>All Students</t>
   </si>
 </sst>
 </file>
@@ -4440,8 +4434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AL27" sqref="AL27"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6881,59 +6875,29 @@
       <c r="O28" s="26"/>
     </row>
     <row r="30" spans="1:47" ht="16">
-      <c r="E30" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="32">
-        <v>2001</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="1:47" ht="16">
-      <c r="E31" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="32">
-        <v>2002</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="E31" s="31"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="1:47" ht="16">
-      <c r="E32" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="32">
-        <v>2003</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" spans="5:7" ht="16">
-      <c r="E33" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F33" s="32">
-        <v>2004</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" spans="5:7" ht="16">
-      <c r="E34" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="32">
-        <v>2005</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>98</v>
-      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -6964,13 +6928,6 @@
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="E30" r:id="rId1"/>
-    <hyperlink ref="E31" r:id="rId2"/>
-    <hyperlink ref="E32" r:id="rId3"/>
-    <hyperlink ref="E33" r:id="rId4"/>
-    <hyperlink ref="E34" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/data/UNCCH-tuition.xlsx
+++ b/data/UNCCH-tuition.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pchance2/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="40" yWindow="0" windowWidth="25500" windowHeight="14860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1980" yWindow="3280" windowWidth="49520" windowHeight="26740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -20,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="99">
   <si>
     <t>1947-1948</t>
   </si>
@@ -311,6 +319,12 @@
   </si>
   <si>
     <t>Enrollment %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of Enrollment </t>
+  </si>
+  <si>
+    <t>Percentage of Tuition Revenue</t>
   </si>
 </sst>
 </file>
@@ -318,10 +332,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -430,71 +451,71 @@
   </borders>
   <cellStyleXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -509,18 +530,26 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="5" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="46" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="59"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -529,23 +558,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="59"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="62">
     <cellStyle name="Comma" xfId="46" builtinId="3"/>
@@ -613,6 +635,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1556,22 +1583,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2127999784"/>
-        <c:axId val="2127996792"/>
+        <c:axId val="1576444608"/>
+        <c:axId val="1612615568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2127999784"/>
+        <c:axId val="1576444608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127996792"/>
+        <c:crossAx val="1612615568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1579,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2127996792"/>
+        <c:axId val="1612615568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1590,13 +1617,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127999784"/>
+        <c:crossAx val="1576444608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1609,6 +1637,2120 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Percentage of Total Undergraguate Population from Out of State</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$W$31:$W$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Enrollment </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UNC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$W$33:$W$44</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.174783928988554</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.176707510778307</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.174853310980721</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.174795617596352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.186662360729856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.191915355398806</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.194671134410636</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.192270005443658</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.193024523160763</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.192451805593266</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.187388651946229</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.178931184391899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$X$31:$X$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Enrollment </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UVA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$X$33:$X$44</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.297333427144164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.331698010357045</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.329420347526197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33359637009272</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.341044197467046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.335043283103559</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.328004060398427</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.335229427379598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.331468357578018</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.331371716313778</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.328752390057361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.304329189884269</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$Y$31:$Y$32</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Enrollment </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Berkeley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$Y$33:$Y$44</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0945830849161059</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0880023467292461</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0873112518265952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0924018925688839</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.101449275362319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126664056382146</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.168746378211319</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19193761154652</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.233748217795075</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.241613212416132</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.244253709630492</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.243858332195987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1724786176"/>
+        <c:axId val="1724282592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1724786176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724282592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1724282592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724786176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Percentage of Total Tuition Revenue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Generate by Out-of-State Students</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AX$28:$AX$29</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Tuition Revenue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UNC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AX$30:$AX$41</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.458092342278346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.456317109479905</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.454404873138528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.466675847471158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.489623393875792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.47390653258829</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.480643584569066</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.468197732001741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.463494212654262</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.490294381570136</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.474749760566722</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.455508026261416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AY$28:$AY$29</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Tuition Revenue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>UVA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AY$30:$AY$41</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.586831961554626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62142177664071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61594260376646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.610971160358568</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.625467773860333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.611017671784923</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.603568067541653</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.61200533861594</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.610441028420086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.613910464285981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.594609133895886</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.554206328862783</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$AZ$28:$AZ$29</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Percentage of Tuition Revenue</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Berkeley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$AZ$30:$AZ$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.261925069168823</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.246789002523802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.242171717585949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25189891935541</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.265304367221101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.291440902808585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.343906405430386</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.375061233547191</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.432962575399429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.440864793751977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.447817132411741</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.457832375151591</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1804193472"/>
+        <c:axId val="1804195520"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1804193472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804195520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1804195520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1804193472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1638,6 +3780,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1970,11 +4177,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O73"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="T3" workbookViewId="0">
-      <selection activeCell="A57" sqref="A3:XFD57"/>
+    <sheetView showRuler="0" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" bestFit="1" customWidth="1"/>
@@ -1988,7 +4195,7 @@
     <col min="15" max="15" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2035,7 +4242,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2062,7 +4269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +4296,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2116,7 +4323,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2143,7 +4350,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +4377,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2197,7 +4404,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2224,7 +4431,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2251,7 +4458,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2278,7 +4485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2305,7 +4512,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -2332,7 +4539,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -2359,7 +4566,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2386,7 +4593,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2413,7 +4620,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -2440,7 +4647,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -2467,7 +4674,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2494,7 +4701,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -2521,7 +4728,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -2548,7 +4755,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2575,7 +4782,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -2602,7 +4809,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -2629,7 +4836,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -2656,7 +4863,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -2683,7 +4890,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2710,7 +4917,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>25</v>
       </c>
@@ -2737,7 +4944,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -2764,7 +4971,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -2791,7 +4998,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -2818,7 +5025,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>29</v>
       </c>
@@ -2845,7 +5052,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -2872,7 +5079,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -2899,7 +5106,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -2926,7 +5133,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -2953,7 +5160,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>34</v>
       </c>
@@ -2980,7 +5187,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>35</v>
       </c>
@@ -3007,7 +5214,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>36</v>
       </c>
@@ -3034,7 +5241,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>37</v>
       </c>
@@ -3061,7 +5268,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -3088,7 +5295,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -3115,7 +5322,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>40</v>
       </c>
@@ -3142,7 +5349,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -3169,7 +5376,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -3196,7 +5403,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>43</v>
       </c>
@@ -3223,7 +5430,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -3250,7 +5457,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>45</v>
       </c>
@@ -3277,7 +5484,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -3304,7 +5511,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -3331,7 +5538,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -3358,7 +5565,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -3385,7 +5592,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -3412,7 +5619,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -3439,7 +5646,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -3466,7 +5673,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -3522,7 +5729,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -3578,7 +5785,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -3634,7 +5841,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -3690,7 +5897,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -3746,7 +5953,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -3802,7 +6009,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>59</v>
       </c>
@@ -3858,7 +6065,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>60</v>
       </c>
@@ -3914,7 +6121,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>61</v>
       </c>
@@ -3970,7 +6177,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>62</v>
       </c>
@@ -4026,7 +6233,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>63</v>
       </c>
@@ -4082,7 +6289,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>64</v>
       </c>
@@ -4138,7 +6345,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>65</v>
       </c>
@@ -4194,7 +6401,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>66</v>
       </c>
@@ -4250,7 +6457,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>67</v>
       </c>
@@ -4306,7 +6513,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -4362,7 +6569,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>69</v>
       </c>
@@ -4422,30 +6629,25 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW34"/>
+  <dimension ref="A1:AZ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="5" max="7" width="10.83203125" customWidth="1"/>
     <col min="11" max="13" width="0" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="10.83203125" customWidth="1"/>
     <col min="20" max="21" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.1640625" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="12.5" customWidth="1"/>
     <col min="25" max="27" width="10.83203125" customWidth="1"/>
     <col min="28" max="28" width="15.1640625" bestFit="1" customWidth="1"/>
@@ -4456,164 +6658,165 @@
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
     <col min="44" max="45" width="10.83203125" customWidth="1"/>
     <col min="48" max="49" width="0" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="19" t="s">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="20" t="s">
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="19" t="s">
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="20" t="s">
+      <c r="AI1" s="31"/>
+      <c r="AJ1" s="31"/>
+      <c r="AK1" s="31"/>
+      <c r="AL1" s="31"/>
+      <c r="AM1" s="31"/>
+      <c r="AN1" s="31"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-    </row>
-    <row r="2" spans="1:49">
-      <c r="A2" s="22"/>
-      <c r="B2" s="21" t="s">
+      <c r="AQ1" s="28"/>
+      <c r="AR1" s="28"/>
+      <c r="AS1" s="28"/>
+      <c r="AT1" s="28"/>
+      <c r="AU1" s="28"/>
+      <c r="AV1" s="28"/>
+      <c r="AW1" s="28"/>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="24" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="23" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="22" t="s">
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="21" t="s">
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="O2" s="21"/>
-      <c r="P2" s="22" t="s">
+      <c r="O2" s="29"/>
+      <c r="P2" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23" t="s">
+      <c r="Q2" s="27"/>
+      <c r="R2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="23"/>
-      <c r="T2" s="22" t="s">
+      <c r="S2" s="30"/>
+      <c r="T2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="21" t="s">
+      <c r="U2" s="27"/>
+      <c r="V2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="22" t="s">
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="23" t="s">
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="22" t="s">
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="21" t="s">
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="AI2" s="21"/>
-      <c r="AJ2" s="22" t="s">
+      <c r="AI2" s="29"/>
+      <c r="AJ2" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AK2" s="22"/>
-      <c r="AL2" s="23" t="s">
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="22" t="s">
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AO2" s="22"/>
-      <c r="AP2" s="21" t="s">
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="22" t="s">
+      <c r="AQ2" s="29"/>
+      <c r="AR2" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="AS2" s="22"/>
-      <c r="AT2" s="23" t="s">
+      <c r="AS2" s="27"/>
+      <c r="AT2" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="22" t="s">
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="AW2" s="22"/>
-    </row>
-    <row r="3" spans="1:49">
-      <c r="A3" s="22"/>
+      <c r="AW2" s="27"/>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A3" s="27"/>
       <c r="B3" s="18" t="s">
         <v>89</v>
       </c>
@@ -4759,7 +6962,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="17">
+    <row r="4" spans="1:49" ht="18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -4773,13 +6976,13 @@
         <f>B4+C4</f>
         <v>15844</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="24">
         <v>9367</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="24">
         <v>4345</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="24">
         <v>13712</v>
       </c>
       <c r="H4" s="6">
@@ -4798,7 +7001,7 @@
       <c r="O4" s="10">
         <v>11934</v>
       </c>
-      <c r="P4" s="25"/>
+      <c r="P4" s="19"/>
       <c r="R4" s="11">
         <v>4046.5</v>
       </c>
@@ -4865,7 +7068,7 @@
         <v>0.117779345621307</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="16">
+    <row r="5" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -4879,13 +7082,13 @@
         <f t="shared" ref="D5:D20" si="0">B5+C5</f>
         <v>15961</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="24">
         <v>9493</v>
       </c>
-      <c r="F5" s="30">
+      <c r="F5" s="24">
         <v>4271</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="24">
         <v>13764</v>
       </c>
       <c r="H5" s="6">
@@ -4971,7 +7174,7 @@
         <v>0.11607718423653789</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="16">
+    <row r="6" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -4985,13 +7188,13 @@
         <f t="shared" si="0"/>
         <v>16144</v>
       </c>
-      <c r="E6" s="30">
+      <c r="E6" s="24">
         <v>9606</v>
       </c>
-      <c r="F6" s="30">
+      <c r="F6" s="24">
         <v>4199</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="24">
         <v>13805</v>
       </c>
       <c r="H6" s="6">
@@ -5077,7 +7280,7 @@
         <v>0.10589469267883365</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="16">
+    <row r="7" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -5091,13 +7294,13 @@
         <f t="shared" si="0"/>
         <v>16525</v>
       </c>
-      <c r="E7" s="30">
+      <c r="E7" s="24">
         <v>9543</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="24">
         <v>4286</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="24">
         <v>13829</v>
       </c>
       <c r="H7" s="6">
@@ -5181,7 +7384,7 @@
         <v>0.10363699043350857</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="16">
+    <row r="8" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -5195,13 +7398,13 @@
         <f t="shared" si="0"/>
         <v>16764</v>
       </c>
-      <c r="E8" s="30">
+      <c r="E8" s="24">
         <v>9709</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="24">
         <v>4420</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="24">
         <v>14129</v>
       </c>
       <c r="H8" s="6">
@@ -5287,7 +7490,7 @@
         <v>9.9781468531468534E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="16">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -5301,13 +7504,13 @@
         <f t="shared" si="0"/>
         <v>17124</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="24">
         <v>9987</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="24">
         <v>4226</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="24">
         <v>14213</v>
       </c>
       <c r="H9" s="6">
@@ -5326,10 +7529,10 @@
       <c r="O9" s="10">
         <v>18411</v>
       </c>
-      <c r="P9" s="28">
+      <c r="P9" s="22">
         <v>7180</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="23">
         <v>24100</v>
       </c>
       <c r="R9" s="11">
@@ -5419,7 +7622,7 @@
         <v>9.4583084916105953E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:49">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -5433,13 +7636,13 @@
         <f t="shared" si="0"/>
         <v>17628</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="21">
         <v>9808</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="21">
         <v>4868</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="21">
         <v>14676</v>
       </c>
       <c r="H10" s="6">
@@ -5458,10 +7661,10 @@
       <c r="O10" s="10">
         <v>19681</v>
       </c>
-      <c r="P10" s="28">
+      <c r="P10" s="22">
         <v>7845</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="22">
         <v>25945</v>
       </c>
       <c r="R10" s="11">
@@ -5551,7 +7754,7 @@
         <v>8.8002346729246117E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:49">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>60</v>
       </c>
@@ -5565,13 +7768,13 @@
         <f t="shared" si="0"/>
         <v>17895</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="21">
         <v>10111</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="21">
         <v>4967</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="21">
         <v>15078</v>
       </c>
       <c r="H11" s="6">
@@ -5590,10 +7793,10 @@
       <c r="O11" s="10">
         <v>20988</v>
       </c>
-      <c r="P11" s="28">
+      <c r="P11" s="22">
         <v>8500</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="22">
         <v>27750</v>
       </c>
       <c r="R11" s="11">
@@ -5683,7 +7886,7 @@
         <v>8.7311251826595229E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:49">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -5697,13 +7900,13 @@
         <f t="shared" si="0"/>
         <v>17981</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="21">
         <v>10134</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="21">
         <v>5073</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="21">
         <v>15207</v>
       </c>
       <c r="H12" s="6">
@@ -5722,10 +7925,10 @@
       <c r="O12" s="10">
         <v>22295</v>
       </c>
-      <c r="P12" s="27">
+      <c r="P12" s="21">
         <v>9498</v>
       </c>
-      <c r="Q12" s="27">
+      <c r="Q12" s="21">
         <v>29798</v>
       </c>
       <c r="R12" s="11">
@@ -5815,7 +8018,7 @@
         <v>9.2401892568883939E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:49">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -5829,13 +8032,13 @@
         <f t="shared" si="0"/>
         <v>18579</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="21">
         <v>10198</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="21">
         <v>5278</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="21">
         <v>15476</v>
       </c>
       <c r="H13" s="6">
@@ -5854,10 +8057,10 @@
       <c r="O13" s="10">
         <v>23513</v>
       </c>
-      <c r="P13" s="27">
+      <c r="P13" s="21">
         <v>9880</v>
       </c>
-      <c r="Q13" s="27">
+      <c r="Q13" s="21">
         <v>31880</v>
       </c>
       <c r="R13" s="6">
@@ -5947,7 +8150,7 @@
         <v>0.10144927536231885</v>
       </c>
     </row>
-    <row r="14" spans="1:49">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -5961,13 +8164,13 @@
         <f t="shared" si="0"/>
         <v>18430</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="21">
         <v>10370</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="21">
         <v>5225</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="21">
         <v>15595</v>
       </c>
       <c r="H14" s="6">
@@ -5986,10 +8189,10 @@
       <c r="O14" s="10">
         <v>25280</v>
       </c>
-      <c r="P14" s="27">
+      <c r="P14" s="21">
         <v>10836</v>
       </c>
-      <c r="Q14" s="27">
+      <c r="Q14" s="21">
         <v>33782</v>
       </c>
       <c r="R14" s="6">
@@ -6079,7 +8282,7 @@
         <v>0.12666405638214565</v>
       </c>
     </row>
-    <row r="15" spans="1:49">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -6093,13 +8296,13 @@
         <f t="shared" si="0"/>
         <v>18503</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="21">
         <v>10592</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="21">
         <v>5170</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="21">
         <v>15762</v>
       </c>
       <c r="H15" s="6">
@@ -6118,10 +8321,10 @@
       <c r="O15" s="10">
         <v>26834</v>
       </c>
-      <c r="P15" s="27">
+      <c r="P15" s="21">
         <v>11794</v>
       </c>
-      <c r="Q15" s="27">
+      <c r="Q15" s="21">
         <v>36788</v>
       </c>
       <c r="R15" s="12">
@@ -6211,7 +8414,7 @@
         <v>0.1687463782113193</v>
       </c>
     </row>
-    <row r="16" spans="1:49">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -6225,13 +8428,13 @@
         <f t="shared" si="0"/>
         <v>18370</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="21">
         <v>10518</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="21">
         <v>5304</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="21">
         <v>15822</v>
       </c>
       <c r="H16" s="6">
@@ -6250,10 +8453,10 @@
       <c r="O16" s="10">
         <v>28442</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="21">
         <v>12224</v>
       </c>
-      <c r="Q16" s="27">
+      <c r="Q16" s="21">
         <v>38236</v>
       </c>
       <c r="R16" s="6">
@@ -6343,7 +8546,7 @@
         <v>0.19193761154651975</v>
       </c>
     </row>
-    <row r="17" spans="1:47">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -6357,13 +8560,13 @@
         <f t="shared" si="0"/>
         <v>18350</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="21">
         <v>10754</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="21">
         <v>5332</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="21">
         <v>16086</v>
       </c>
       <c r="H17" s="6">
@@ -6382,10 +8585,10 @@
       <c r="O17" s="10">
         <v>30122</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="21">
         <v>12676</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="21">
         <v>40062</v>
       </c>
       <c r="R17" s="6">
@@ -6475,7 +8678,7 @@
         <v>0.23374821779507535</v>
       </c>
     </row>
-    <row r="18" spans="1:47">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -6489,13 +8692,13 @@
         <f t="shared" si="0"/>
         <v>18415</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="21">
         <v>11021</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="21">
         <v>5462</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="21">
         <v>16483</v>
       </c>
       <c r="H18" s="6">
@@ -6514,10 +8717,10 @@
       <c r="O18" s="10">
         <v>33687</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="21">
         <v>13216</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="21">
         <v>42402</v>
       </c>
       <c r="R18" s="6">
@@ -6607,7 +8810,7 @@
         <v>0.24161321241613212</v>
       </c>
     </row>
-    <row r="19" spans="1:47">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -6621,13 +8824,13 @@
         <f t="shared" si="0"/>
         <v>18523</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="21">
         <v>11234</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="21">
         <v>5502</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="21">
         <v>16736</v>
       </c>
       <c r="H19" s="6">
@@ -6646,10 +8849,10 @@
       <c r="O19" s="10">
         <v>33673</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="21">
         <v>14686</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="21">
         <v>43982</v>
       </c>
       <c r="R19" s="6">
@@ -6739,7 +8942,7 @@
         <v>0.2442537096304917</v>
       </c>
     </row>
-    <row r="20" spans="1:47">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>69</v>
       </c>
@@ -6753,13 +8956,13 @@
         <f t="shared" si="0"/>
         <v>18862</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="21">
         <v>11361</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="21">
         <v>4970</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="21">
         <v>16331</v>
       </c>
       <c r="H20" s="6">
@@ -6778,10 +8981,10 @@
       <c r="O20" s="10">
         <v>33916</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="21">
         <v>15932</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="21">
         <v>45276</v>
       </c>
       <c r="R20" s="6">
@@ -6871,36 +9074,308 @@
         <v>0.24385833219598743</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="17">
-      <c r="O28" s="26"/>
-    </row>
-    <row r="30" spans="1:47" ht="16">
-      <c r="E30" s="31"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="1:47" ht="16">
-      <c r="E31" s="31"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="1:47" ht="16">
-      <c r="E32" s="31"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" spans="5:7" ht="16">
-      <c r="E33" s="31"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-    </row>
-    <row r="34" spans="5:7" ht="16">
-      <c r="E34" s="31"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+    <row r="28" spans="1:52" ht="18" x14ac:dyDescent="0.2">
+      <c r="O28" s="20"/>
+      <c r="AX28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="AX29" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="E30" s="25"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="AX30" s="14">
+        <v>0.45809234227834555</v>
+      </c>
+      <c r="AY30" s="3">
+        <v>0.58683196155462591</v>
+      </c>
+      <c r="AZ30">
+        <v>0.26192506916882274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="W31" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX31" s="14">
+        <v>0.45631710947990539</v>
+      </c>
+      <c r="AY31" s="3">
+        <v>0.62142177664070997</v>
+      </c>
+      <c r="AZ31">
+        <v>0.24678900252380159</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="W32" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="X32" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>93</v>
+      </c>
+      <c r="AX32" s="14">
+        <v>0.45440487313852768</v>
+      </c>
+      <c r="AY32" s="3">
+        <v>0.61594260376646026</v>
+      </c>
+      <c r="AZ32">
+        <v>0.24217171758594896</v>
+      </c>
+    </row>
+    <row r="33" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="E33" s="25"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="W33" s="14">
+        <v>0.17478392898855408</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0.29733342714416378</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>9.4583084916105953E-2</v>
+      </c>
+      <c r="AX33" s="14">
+        <v>0.46667584747115842</v>
+      </c>
+      <c r="AY33" s="3">
+        <v>0.61097116035856824</v>
+      </c>
+      <c r="AZ33">
+        <v>0.25189891935540981</v>
+      </c>
+    </row>
+    <row r="34" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="E34" s="25"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="W34" s="14">
+        <v>0.17670751077830724</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0.33169801035704549</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>8.8002346729246117E-2</v>
+      </c>
+      <c r="AX34" s="14">
+        <v>0.48962339387579235</v>
+      </c>
+      <c r="AY34" s="3">
+        <v>0.62546777386033281</v>
+      </c>
+      <c r="AZ34">
+        <v>0.26530436722110062</v>
+      </c>
+    </row>
+    <row r="35" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="W35" s="14">
+        <v>0.17485331098072088</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0.32942034752619709</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>8.7311251826595229E-2</v>
+      </c>
+      <c r="AX35" s="14">
+        <v>0.47390653258829013</v>
+      </c>
+      <c r="AY35" s="3">
+        <v>0.61101767178492317</v>
+      </c>
+      <c r="AZ35">
+        <v>0.29144090280858503</v>
+      </c>
+    </row>
+    <row r="36" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="W36" s="14">
+        <v>0.1747956175963517</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0.33359637009272047</v>
+      </c>
+      <c r="Y36" s="33">
+        <v>9.2401892568883939E-2</v>
+      </c>
+      <c r="AX36" s="14">
+        <v>0.48064358456906631</v>
+      </c>
+      <c r="AY36" s="3">
+        <v>0.60356806754165282</v>
+      </c>
+      <c r="AZ36">
+        <v>0.34390640543038581</v>
+      </c>
+    </row>
+    <row r="37" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="W37" s="14">
+        <v>0.18666236072985629</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0.34104419746704573</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0.10144927536231885</v>
+      </c>
+      <c r="AX37" s="14">
+        <v>0.46819773200174103</v>
+      </c>
+      <c r="AY37" s="3">
+        <v>0.61200533861594031</v>
+      </c>
+      <c r="AZ37">
+        <v>0.37506123354719134</v>
+      </c>
+    </row>
+    <row r="38" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="W38" s="14">
+        <v>0.1919153553988063</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0.33504328310355885</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0.12666405638214565</v>
+      </c>
+      <c r="AX38" s="14">
+        <v>0.46349421265426177</v>
+      </c>
+      <c r="AY38" s="3">
+        <v>0.61044102842008585</v>
+      </c>
+      <c r="AZ38">
+        <v>0.43296257539942906</v>
+      </c>
+    </row>
+    <row r="39" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="W39" s="14">
+        <v>0.1946711344106361</v>
+      </c>
+      <c r="X39" s="3">
+        <v>0.32800406039842661</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0.1687463782113193</v>
+      </c>
+      <c r="AX39" s="14">
+        <v>0.49029438157013605</v>
+      </c>
+      <c r="AY39" s="3">
+        <v>0.61391046428598128</v>
+      </c>
+      <c r="AZ39">
+        <v>0.44086479375197685</v>
+      </c>
+    </row>
+    <row r="40" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="W40" s="14">
+        <v>0.19227000544365813</v>
+      </c>
+      <c r="X40" s="3">
+        <v>0.33522942737959804</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0.19193761154651975</v>
+      </c>
+      <c r="AX40" s="14">
+        <v>0.47474976056672163</v>
+      </c>
+      <c r="AY40" s="3">
+        <v>0.5946091338958861</v>
+      </c>
+      <c r="AZ40">
+        <v>0.44781713241174109</v>
+      </c>
+    </row>
+    <row r="41" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="W41" s="14">
+        <v>0.19302452316076293</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0.33146835757801818</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0.23374821779507535</v>
+      </c>
+      <c r="AX41" s="14">
+        <v>0.45550802626141568</v>
+      </c>
+      <c r="AY41" s="3">
+        <v>0.55420632886278287</v>
+      </c>
+      <c r="AZ41">
+        <v>0.45783237515159092</v>
+      </c>
+    </row>
+    <row r="42" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="W42" s="14">
+        <v>0.19245180559326636</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0.33137171631377782</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0.24161321241613212</v>
+      </c>
+    </row>
+    <row r="43" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="W43" s="14">
+        <v>0.187388651946229</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0.3287523900573614</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0.2442537096304917</v>
+      </c>
+    </row>
+    <row r="44" spans="5:52" x14ac:dyDescent="0.2">
+      <c r="W44" s="14">
+        <v>0.17893118439189906</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0.30432918988426916</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0.24385833219598743</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="N1:U1"/>
+    <mergeCell ref="V1:AG1"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AG2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="AP1:AW1"/>
     <mergeCell ref="AP2:AQ2"/>
@@ -6917,23 +9392,9 @@
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N1:U1"/>
-    <mergeCell ref="V1:AG1"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AG2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>